--- a/Propuesta Económica/EvalEconomica.xlsx
+++ b/Propuesta Económica/EvalEconomica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
   <si>
     <t>v</t>
   </si>
@@ -150,46 +150,52 @@
     <t>Precio m^2</t>
   </si>
   <si>
+    <t>Producto 1 - Baldosa no personalizada</t>
+  </si>
+  <si>
+    <t>Producto 2 - Baldosa personalizada</t>
+  </si>
+  <si>
+    <t>Tamaño lote (m^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de un lote </t>
+  </si>
+  <si>
+    <t>Lotes vendidos al mes</t>
+  </si>
+  <si>
+    <t>Total ganancia mensual</t>
+  </si>
+  <si>
+    <t>Inversión inicial</t>
+  </si>
+  <si>
+    <t>Costos de nómina</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Celda robotizada</t>
+  </si>
+  <si>
     <t>Producto 1</t>
   </si>
   <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
     <t>Producto 2</t>
   </si>
   <si>
+    <t>SCADA</t>
+  </si>
+  <si>
     <t>Producto 3</t>
-  </si>
-  <si>
-    <t>Tamaño lote (m^2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio de un lote </t>
-  </si>
-  <si>
-    <t>Lotes vendidos al mes</t>
-  </si>
-  <si>
-    <t>Total ganancia mensual</t>
-  </si>
-  <si>
-    <t>Inversión inicial</t>
-  </si>
-  <si>
-    <t>Costos de nómina</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Celda robotizada</t>
-  </si>
-  <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
-    <t>SCADA</t>
   </si>
   <si>
     <t>MES</t>
@@ -469,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -499,6 +505,7 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -553,6 +560,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
@@ -658,11 +668,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57603629"/>
-        <c:axId val="275745207"/>
+        <c:axId val="1220132173"/>
+        <c:axId val="1360040461"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57603629"/>
+        <c:axId val="1220132173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -714,10 +724,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275745207"/>
+        <c:crossAx val="1360040461"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275745207"/>
+        <c:axId val="1360040461"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +802,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57603629"/>
+        <c:crossAx val="1220132173"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -866,12 +876,12 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2305050" cy="2305050"/>
+    <xdr:ext cx="2305050" cy="2247900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -892,46 +902,18 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2305050" cy="2247900"/>
+    <xdr:ext cx="2743200" cy="1838325"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2247900" cy="2305050"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1428,6 +1410,10 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
+      <c r="H30" s="13">
+        <f>75000/500</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="6" t="s">
@@ -1451,7 +1437,7 @@
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
         <f>E32</f>
         <v>4000000</v>
       </c>
@@ -1729,7 +1715,7 @@
       <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="14">
         <f>E30</f>
         <v>3000000</v>
       </c>
@@ -2023,7 +2009,7 @@
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
         <f>E32</f>
         <v>3000000</v>
       </c>
@@ -2057,7 +2043,6 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="18.5"/>
     <col customWidth="1" min="6" max="6" width="18.5"/>
-    <col customWidth="1" min="10" max="10" width="18.5"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2065,19 +2050,13 @@
         <v>43</v>
       </c>
       <c r="C2" s="11">
-        <v>45000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="11">
-        <v>90000.0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="11">
-        <v>150000.0</v>
+        <v>120000.0</v>
       </c>
     </row>
     <row r="4">
@@ -2091,240 +2070,171 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4"/>
     </row>
     <row r="5">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6">
-      <c r="B6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="F6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="J6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7">
-      <c r="B7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="J7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8">
-      <c r="B8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9">
-      <c r="B9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="J9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10">
-      <c r="B10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="J11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="J12" s="17"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14">
-      <c r="B14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="J14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15">
-      <c r="B15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="J15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16">
-      <c r="B16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="J16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="22">
+        <v>46</v>
+      </c>
+      <c r="C18" s="23">
         <v>1.8</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="22">
+        <v>46</v>
+      </c>
+      <c r="G18" s="23">
         <v>1.44</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="J18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="22">
-        <v>1.62</v>
-      </c>
-      <c r="L18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="9">
         <f>C18*C2</f>
-        <v>81000</v>
+        <v>162000</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="9">
         <f>G18*G2</f>
-        <v>129600</v>
+        <v>172800</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="J19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="9">
-        <f>K18*K2</f>
-        <v>243000</v>
-      </c>
-      <c r="L19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="23">
+        <v>48</v>
+      </c>
+      <c r="C20" s="24">
         <v>500.0</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="23">
+        <v>48</v>
+      </c>
+      <c r="G20" s="24">
         <v>200.0</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="J20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="L20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9">
         <f>C20*C19</f>
-        <v>40500000</v>
+        <v>81000000</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="9">
         <f>G20*G19</f>
-        <v>25920000</v>
+        <v>34560000</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="9">
-        <f>K20*K19</f>
-        <v>24300000</v>
-      </c>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="12">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B5:D17"/>
+    <mergeCell ref="F5:H17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="F5:H17"/>
-    <mergeCell ref="J5:L17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B5:D17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2351,44 +2261,44 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="E3" s="24" t="s">
+      <c r="F3" s="4"/>
+      <c r="H3" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="K3" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="H3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="K3" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -2396,31 +2306,31 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="11">
         <f>CeldaRobotizada!C23</f>
         <v>400000000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="11">
         <v>0.0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="11">
         <f>CeldaRobotizada!C33</f>
         <v>4000000</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L5" s="11">
         <f>Ingresos!C21</f>
-        <v>40500000</v>
+        <v>81000000</v>
       </c>
     </row>
     <row r="6">
@@ -2445,40 +2355,39 @@
         <v>3000000</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L6" s="11">
         <f>Ingresos!G21</f>
-        <v>25920000</v>
+        <v>34560000</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="11">
         <f>SCADA!C23</f>
         <v>110000000</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="11">
         <v>0.0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="11">
         <f>SCADA!C33</f>
         <v>3000000</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L7" s="11">
-        <f>Ingresos!K21</f>
-        <v>24300000</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -2508,68 +2417,68 @@
       </c>
       <c r="L8" s="11">
         <f>SUM(L5:L7)</f>
-        <v>90720000</v>
+        <v>115560000</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="A11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="27">
         <v>0.0</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>1.0</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="27">
         <v>2.0</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="27">
         <v>3.0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="27">
         <v>4.0</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="27">
         <v>5.0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="27">
         <v>6.0</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="27">
         <v>7.0</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="27">
         <v>8.0</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="27">
         <v>9.0</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="27">
         <v>10.0</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="27">
         <v>11.0</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="27">
         <v>12.0</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="s">
-        <v>59</v>
+      <c r="A12" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2584,154 +2493,154 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32">
+      <c r="A13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
         <f t="shared" ref="C13:N13" si="1">$L$8</f>
-        <v>90720000</v>
-      </c>
-      <c r="D13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="D13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="E13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="E13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="F13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="F13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="G13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="G13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="H13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="H13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="I13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="I13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="J13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="J13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="K13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="K13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="L13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="L13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="M13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="M13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="N13" s="32">
+        <v>115560000</v>
+      </c>
+      <c r="N13" s="33">
         <f t="shared" si="1"/>
-        <v>90720000</v>
-      </c>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
+        <v>115560000</v>
+      </c>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
     </row>
     <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="34">
+      <c r="A14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35">
         <f t="shared" ref="C14:N14" si="2">C13</f>
-        <v>90720000</v>
-      </c>
-      <c r="D14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="D14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="E14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="E14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="F14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="G14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="G14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="H14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="H14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="I14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="I14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="J14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="J14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="K14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="K14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="L14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="L14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="M14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="M14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="N14" s="34">
+        <v>115560000</v>
+      </c>
+      <c r="N14" s="35">
         <f t="shared" si="2"/>
-        <v>90720000</v>
-      </c>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
+        <v>115560000</v>
+      </c>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
     </row>
     <row r="15">
-      <c r="A15" s="28" t="s">
-        <v>61</v>
+      <c r="A15" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2746,284 +2655,284 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="34">
+      <c r="A16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="35">
         <f>C8</f>
         <v>570000000</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
+      <c r="C16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="32">
+      <c r="B17" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="33">
         <f t="shared" ref="C17:N17" si="3">$I$8</f>
         <v>10000000</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="33">
         <f t="shared" si="3"/>
         <v>10000000</v>
       </c>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="32">
+      <c r="A18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="33">
         <f t="shared" ref="C18:N18" si="4">$F$8</f>
         <v>0</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
     </row>
     <row r="19">
-      <c r="A19" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="34">
+      <c r="A19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="35">
         <f t="shared" ref="B19:N19" si="5">SUM(B16:B18)</f>
         <v>570000000</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="33">
         <f t="shared" si="5"/>
         <v>10000000</v>
       </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="s">
-        <v>65</v>
+      <c r="A20" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3038,919 +2947,925 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
     </row>
     <row r="21">
-      <c r="A21" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="34">
+      <c r="A21" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="35">
         <f t="shared" ref="B21:N21" si="6">B14-B19</f>
         <v>-570000000</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="D21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="D21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="E21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="E21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="F21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="F21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="G21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="G21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="H21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="H21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="I21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="I21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="J21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="J21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="K21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="K21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="L21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="L21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="M21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="M21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="N21" s="34">
+        <v>105560000</v>
+      </c>
+      <c r="N21" s="35">
         <f t="shared" si="6"/>
-        <v>80720000</v>
-      </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
+        <v>105560000</v>
+      </c>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
     </row>
     <row r="22">
-      <c r="A22" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="34">
-        <f t="shared" ref="C22:N22" si="7">(C21/(1+$B$27)^C11)</f>
-        <v>80720000</v>
-      </c>
-      <c r="D22" s="34">
+      <c r="A22" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="35">
+        <f t="shared" ref="B22:N22" si="7">(B21/(1+$B$27)^B11)</f>
+        <v>-570000000</v>
+      </c>
+      <c r="C22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="E22" s="34">
+        <v>100533333.3</v>
+      </c>
+      <c r="D22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="F22" s="34">
+        <v>95746031.75</v>
+      </c>
+      <c r="E22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="G22" s="34">
+        <v>91186696.9</v>
+      </c>
+      <c r="F22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="H22" s="34">
+        <v>86844473.24</v>
+      </c>
+      <c r="G22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="I22" s="34">
+        <v>82709022.13</v>
+      </c>
+      <c r="H22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="J22" s="34">
+        <v>78770497.27</v>
+      </c>
+      <c r="I22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="K22" s="34">
+        <v>75019521.21</v>
+      </c>
+      <c r="J22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="L22" s="34">
+        <v>71447163.06</v>
+      </c>
+      <c r="K22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="M22" s="34">
+        <v>68044917.2</v>
+      </c>
+      <c r="L22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="N22" s="34">
+        <v>64804683.04</v>
+      </c>
+      <c r="M22" s="35">
         <f t="shared" si="7"/>
-        <v>80720000</v>
-      </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
+        <v>61718745.76</v>
+      </c>
+      <c r="N22" s="35">
+        <f t="shared" si="7"/>
+        <v>58779757.86</v>
+      </c>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
     </row>
     <row r="23">
-      <c r="A23" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="38">
-        <f>C22</f>
-        <v>80720000</v>
-      </c>
-      <c r="D23" s="38">
-        <f t="shared" ref="D23:N23" si="8">D22+C23</f>
-        <v>161440000</v>
-      </c>
-      <c r="E23" s="38">
+      <c r="A23" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="39">
+        <f>B22</f>
+        <v>-570000000</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" ref="C23:N23" si="8">C22+B23</f>
+        <v>-469466666.7</v>
+      </c>
+      <c r="D23" s="40">
         <f t="shared" si="8"/>
-        <v>242160000</v>
-      </c>
-      <c r="F23" s="38">
+        <v>-373720634.9</v>
+      </c>
+      <c r="E23" s="40">
         <f t="shared" si="8"/>
-        <v>322880000</v>
-      </c>
-      <c r="G23" s="38">
+        <v>-282533938</v>
+      </c>
+      <c r="F23" s="40">
         <f t="shared" si="8"/>
-        <v>403600000</v>
-      </c>
-      <c r="H23" s="38">
+        <v>-195689464.8</v>
+      </c>
+      <c r="G23" s="40">
         <f t="shared" si="8"/>
-        <v>484320000</v>
-      </c>
-      <c r="I23" s="38">
+        <v>-112980442.6</v>
+      </c>
+      <c r="H23" s="40">
         <f t="shared" si="8"/>
-        <v>565040000</v>
-      </c>
-      <c r="J23" s="38">
+        <v>-34209945.38</v>
+      </c>
+      <c r="I23" s="40">
         <f t="shared" si="8"/>
-        <v>645760000</v>
-      </c>
-      <c r="K23" s="38">
+        <v>40809575.83</v>
+      </c>
+      <c r="J23" s="40">
         <f t="shared" si="8"/>
-        <v>726480000</v>
-      </c>
-      <c r="L23" s="38">
+        <v>112256738.9</v>
+      </c>
+      <c r="K23" s="40">
         <f t="shared" si="8"/>
-        <v>807200000</v>
-      </c>
-      <c r="M23" s="38">
+        <v>180301656.1</v>
+      </c>
+      <c r="L23" s="40">
         <f t="shared" si="8"/>
-        <v>887920000</v>
-      </c>
-      <c r="N23" s="38">
+        <v>245106339.1</v>
+      </c>
+      <c r="M23" s="40">
         <f t="shared" si="8"/>
-        <v>968640000</v>
-      </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
+        <v>306825084.9</v>
+      </c>
+      <c r="N23" s="40">
+        <f t="shared" si="8"/>
+        <v>365604842.7</v>
+      </c>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
     </row>
     <row r="24">
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
     </row>
     <row r="25">
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
     </row>
     <row r="26">
-      <c r="A26" s="39" t="s">
-        <v>69</v>
+      <c r="A26" s="41" t="s">
+        <v>71</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
     </row>
     <row r="27">
-      <c r="A27" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="40">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
+      <c r="A27" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
     </row>
     <row r="28">
-      <c r="A28" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="42">
+      <c r="A28" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="44">
         <f t="array" ref="B28">NPV(B27,C21:N21)</f>
-        <v>968640000</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
+        <v>935604842.7</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
     </row>
     <row r="29">
-      <c r="A29" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="42">
+      <c r="A29" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="44">
         <f>C8</f>
         <v>570000000</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
     </row>
     <row r="30">
-      <c r="A30" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="44">
+      <c r="A30" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="46">
         <f>B28-B29</f>
-        <v>398640000</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
+        <v>365604842.7</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="46">
+      <c r="A31" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="48">
         <f>IRR(B21:N21)</f>
-        <v>0.09278222312</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
+        <v>0.1509039097</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="48">
-        <v>8.0</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
+      <c r="A32" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="50">
+        <v>7.0</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
     </row>
     <row r="33">
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="V33" s="30"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
     </row>
     <row r="34">
-      <c r="A34" s="28" t="s">
-        <v>75</v>
+      <c r="A34" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
     </row>
     <row r="35">
-      <c r="A35" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="34">
+      <c r="A35" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="35">
         <f>SUM(C14:N14)</f>
-        <v>1088640000</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
+        <v>1386720000</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="34">
+      <c r="A36" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="35">
         <f>SUM(C19:N19)</f>
         <v>120000000</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="29"/>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
     </row>
     <row r="37">
-      <c r="A37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="34">
+      <c r="A37" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="35">
         <f>B35-B36</f>
-        <v>968640000</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
+        <v>1266720000</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="34">
+      <c r="A38" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="35">
         <v>0.0</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
     </row>
     <row r="39">
-      <c r="A39" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="34">
+      <c r="A39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="35">
         <f>B37-B38</f>
-        <v>968640000</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
+        <v>1266720000</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
     </row>
     <row r="40">
-      <c r="A40" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="34">
+      <c r="A40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="35">
         <f>B39*0.19</f>
-        <v>184041600</v>
-      </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
+        <v>240676800</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
     </row>
     <row r="41">
-      <c r="A41" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="34">
+      <c r="A41" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="35">
         <f>B39-B40</f>
-        <v>784598400</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
+        <v>1026043200</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
     </row>
     <row r="42">
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
     </row>
     <row r="43">
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
     </row>
     <row r="44">
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="29"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
     </row>
     <row r="45">
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="29"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
     </row>
     <row r="46">
-      <c r="A46" s="49"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
     </row>
     <row r="47">
-      <c r="A47" s="49"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
     </row>
     <row r="48">
-      <c r="A48" s="49"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3980,26 +3895,26 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3">
-      <c r="B3" s="51" t="s">
-        <v>82</v>
+      <c r="B3" s="53" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11">
         <v>8000000.0</v>
@@ -4007,7 +3922,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="11">
         <v>8000000.0</v>
@@ -4015,7 +3930,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="11">
         <v>8000000.0</v>
@@ -4023,7 +3938,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="11">
         <v>8000000.0</v>
@@ -4031,7 +3946,7 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11">
         <v>8000000.0</v>
@@ -4039,7 +3954,7 @@
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="11">
         <v>8000000.0</v>
@@ -4047,7 +3962,7 @@
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C11" s="11">
         <v>8000000.0</v>

--- a/Propuesta Económica/EvalEconomica.xlsx
+++ b/Propuesta Económica/EvalEconomica.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
   <si>
     <t>v</t>
   </si>
@@ -150,10 +150,22 @@
     <t>Precio m^2</t>
   </si>
   <si>
-    <t>Producto 1 - Baldosa no personalizada</t>
-  </si>
-  <si>
-    <t>Producto 2 - Baldosa personalizada</t>
+    <t xml:space="preserve">Piso Pared Cerámico Avellano Beige 30x60cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Para Pared Estilo Decorativo Atelier-B 30x60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pared Santa Maria Brillante Multicolor 30x45 </t>
+  </si>
+  <si>
+    <t>Producto 1 - Baldosa mate 30x60</t>
+  </si>
+  <si>
+    <t>Producto 2 - Baldosa esmaltada decorada 30x60</t>
+  </si>
+  <si>
+    <t>Producto 2 - Baldosa texturizada 30x60</t>
   </si>
   <si>
     <t>Tamaño lote (m^2)</t>
@@ -168,6 +180,21 @@
     <t>Total ganancia mensual</t>
   </si>
   <si>
+    <t>Precio m^2 promedio</t>
+  </si>
+  <si>
+    <t>Producción m^2 (planta actual)</t>
+  </si>
+  <si>
+    <t>Producción m^2 (planta automatizada)</t>
+  </si>
+  <si>
+    <t>Aumento de la producción en m^2</t>
+  </si>
+  <si>
+    <t>Total ganancia mensual promedio</t>
+  </si>
+  <si>
     <t>Inversión inicial</t>
   </si>
   <si>
@@ -270,44 +297,99 @@
     <t>Utilidad neta</t>
   </si>
   <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Salario (MXN)</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>En COP</t>
+  </si>
+  <si>
     <t>Nómina</t>
   </si>
   <si>
+    <t>Planta actual</t>
+  </si>
+  <si>
+    <t>Planta automatizada</t>
+  </si>
+  <si>
     <t>Personal</t>
   </si>
   <si>
     <t>Salario</t>
   </si>
   <si>
+    <t>Operadores</t>
+  </si>
+  <si>
     <t>Ingeniero 1</t>
   </si>
   <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Cantidad de personal</t>
+  </si>
+  <si>
     <t>Ingeniero 2</t>
   </si>
   <si>
+    <t>Prensado</t>
+  </si>
+  <si>
     <t>Ingeniero 3</t>
   </si>
   <si>
+    <t>Esmaltado</t>
+  </si>
+  <si>
     <t>Ingeniero 4</t>
   </si>
   <si>
+    <t>Impresión</t>
+  </si>
+  <si>
     <t>Ingeniero 5</t>
   </si>
   <si>
+    <t>Horneado</t>
+  </si>
+  <si>
     <t>Ingeniero 6</t>
   </si>
   <si>
+    <t>QC</t>
+  </si>
+  <si>
     <t>Ingeniero 7</t>
+  </si>
+  <si>
+    <t>Empacado</t>
+  </si>
+  <si>
+    <t>Paletizado</t>
+  </si>
+  <si>
+    <t>Delta salarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$ $]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$ $]#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -325,6 +407,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -475,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -507,6 +593,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -524,85 +613,110 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="12" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,11 +782,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1220132173"/>
-        <c:axId val="1360040461"/>
+        <c:axId val="1419807756"/>
+        <c:axId val="2029599027"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1220132173"/>
+        <c:axId val="1419807756"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,10 +838,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360040461"/>
+        <c:crossAx val="2029599027"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360040461"/>
+        <c:axId val="2029599027"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +916,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1220132173"/>
+        <c:crossAx val="1419807756"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -874,14 +988,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2305050" cy="2247900"/>
+    <xdr:ext cx="2457450" cy="2390775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -902,18 +1016,46 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2743200" cy="1838325"/>
+    <xdr:ext cx="2733675" cy="2390775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2676525" cy="2333625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1332,7 +1474,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11">
-        <v>4.0E8</v>
+        <v>2.0E9</v>
       </c>
     </row>
     <row r="21">
@@ -1341,7 +1483,7 @@
       </c>
       <c r="C21" s="9">
         <f>SUM(E17:E20)</f>
-        <v>400000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1352,7 +1494,7 @@
       </c>
       <c r="C23" s="12">
         <f>C21+C13</f>
-        <v>400000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -1430,7 +1572,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="11">
-        <v>4000000.0</v>
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="33">
@@ -1439,7 +1581,7 @@
       </c>
       <c r="C33" s="14">
         <f>E32</f>
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -1614,7 +1756,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11">
-        <v>6.0E7</v>
+        <v>2.0E9</v>
       </c>
     </row>
     <row r="19">
@@ -1623,7 +1765,7 @@
       </c>
       <c r="C19" s="9">
         <f>SUM(E16:E18)</f>
-        <v>60000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
@@ -1634,7 +1776,7 @@
       </c>
       <c r="C21" s="12">
         <f>C19+C12</f>
-        <v>60000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1708,7 +1850,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="11">
-        <v>3000000.0</v>
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="31">
@@ -1717,7 +1859,7 @@
       </c>
       <c r="C31" s="14">
         <f>E30</f>
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -1908,7 +2050,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="11">
-        <v>1.1E8</v>
+        <v>2.0E9</v>
       </c>
     </row>
     <row r="21">
@@ -1917,7 +2059,7 @@
       </c>
       <c r="C21" s="9">
         <f>SUM(E18:E20)</f>
-        <v>110000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1928,7 +2070,7 @@
       </c>
       <c r="C23" s="12">
         <f>C21+C14</f>
-        <v>110000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -2002,7 +2144,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="11">
-        <v>3000000.0</v>
+        <v>1.5E7</v>
       </c>
     </row>
     <row r="33">
@@ -2011,7 +2153,7 @@
       </c>
       <c r="C33" s="14">
         <f>E32</f>
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -2042,7 +2184,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="4" max="4" width="14.38"/>
     <col customWidth="1" min="6" max="6" width="18.5"/>
+    <col customWidth="1" min="10" max="10" width="19.88"/>
+    <col customWidth="1" min="12" max="12" width="6.5"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2050,193 +2195,346 @@
         <v>43</v>
       </c>
       <c r="C2" s="11">
-        <v>90000.0</v>
+        <v>41300.0</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="11">
-        <v>120000.0</v>
+        <v>79519.0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="11">
+        <v>38300.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6">
-      <c r="B6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="F6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="H6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7">
-      <c r="B7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="F7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8">
-      <c r="B8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10">
-      <c r="B10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11">
-      <c r="B11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12">
-      <c r="B12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13">
-      <c r="B13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="F13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="F13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14">
-      <c r="B14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="F14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="F15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="F15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16">
-      <c r="B16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1.8</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1.62</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="23">
+        <v>50</v>
+      </c>
+      <c r="G18" s="24">
         <v>1.44</v>
       </c>
       <c r="H18" s="4"/>
+      <c r="J18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1.89</v>
+      </c>
+      <c r="L18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9">
         <f>C18*C2</f>
-        <v>162000</v>
+        <v>66906</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G19" s="9">
         <f>G18*G2</f>
-        <v>172800</v>
+        <v>114507.36</v>
       </c>
       <c r="H19" s="4"/>
+      <c r="J19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="9">
+        <f>K18*K2</f>
+        <v>72387</v>
+      </c>
+      <c r="L19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="24">
-        <v>500.0</v>
+        <v>52</v>
+      </c>
+      <c r="C20" s="25">
+        <v>70000.0</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="24">
-        <v>200.0</v>
+        <v>52</v>
+      </c>
+      <c r="G20" s="25">
+        <v>54000.0</v>
       </c>
       <c r="H20" s="4"/>
+      <c r="J20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="25">
+        <v>53000.0</v>
+      </c>
+      <c r="L20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="9">
         <f>C20*C19</f>
-        <v>81000000</v>
+        <v>4683420000</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G21" s="9">
         <f>G20*G19</f>
-        <v>34560000</v>
+        <v>6183397440</v>
       </c>
       <c r="H21" s="4"/>
+      <c r="J21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="9">
+        <f>K20*K19</f>
+        <v>3836511000</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8">
+        <f>SUM(C21+G21+K21)</f>
+        <v>14703328440</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8">
+        <f>AVERAGE(C2,G2,K2)</f>
+        <v>53039.66667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6">
+        <v>233000.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6">
+        <v>510000.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7">
+        <f>D26-D25</f>
+        <v>277000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="8">
+        <f>D27*D24</f>
+        <v>14691987667</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="F5:H17"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J5:L17"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:D17"/>
-    <mergeCell ref="F5:H17"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="J3"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2261,44 +2559,44 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="B3" s="25" t="s">
-        <v>50</v>
+      <c r="B3" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="E3" s="25" t="s">
-        <v>51</v>
+      <c r="E3" s="26" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="K3" s="25" t="s">
-        <v>52</v>
+      <c r="K3" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -2306,88 +2604,89 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" s="11">
         <f>CeldaRobotizada!C23</f>
-        <v>400000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F5" s="11">
         <v>0.0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I5" s="11">
         <f>CeldaRobotizada!C33</f>
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L5" s="11">
         <f>Ingresos!C21</f>
-        <v>81000000</v>
+        <v>4683420000</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11">
         <f>Comunicaciones!C21</f>
-        <v>60000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F6" s="11">
         <v>0.0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I6" s="11">
         <f>Comunicaciones!C31</f>
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L6" s="11">
         <f>Ingresos!G21</f>
-        <v>34560000</v>
+        <v>6183397440</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11">
         <f>SCADA!C23</f>
-        <v>110000000</v>
+        <v>2000000000</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F7" s="11">
         <v>0.0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I7" s="11">
         <f>SCADA!C33</f>
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L7" s="11">
-        <v>0.0</v>
+        <f>Ingresos!K21</f>
+        <v>3836511000</v>
       </c>
     </row>
     <row r="8">
@@ -2396,7 +2695,7 @@
       </c>
       <c r="C8" s="11">
         <f>SUM(C5:C7)</f>
-        <v>570000000</v>
+        <v>6000000000</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -2410,75 +2709,75 @@
       </c>
       <c r="I8" s="11">
         <f>SUM(I5:I7)</f>
-        <v>10000000</v>
+        <v>45000000</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="11">
         <f>SUM(L5:L7)</f>
-        <v>115560000</v>
+        <v>14703328440</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="28">
         <v>0.0</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="28">
         <v>1.0</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="28">
         <v>2.0</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="28">
         <v>3.0</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>4.0</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="28">
         <v>5.0</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="28">
         <v>6.0</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="28">
         <v>7.0</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <v>8.0</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="28">
         <v>9.0</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="28">
         <v>10.0</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="28">
         <v>11.0</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>12.0</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
     </row>
     <row r="12">
-      <c r="A12" s="29" t="s">
-        <v>61</v>
+      <c r="A12" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2493,154 +2792,154 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13">
-      <c r="A13" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33">
+      <c r="A13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34">
         <f t="shared" ref="C13:N13" si="1">$L$8</f>
-        <v>115560000</v>
-      </c>
-      <c r="D13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="D13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="E13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="E13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="F13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="F13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="G13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="H13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="H13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="I13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="I13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="J13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="J13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="K13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="K13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="L13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="L13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="M13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="M13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="N13" s="33">
+        <v>14703328440</v>
+      </c>
+      <c r="N13" s="34">
         <f t="shared" si="1"/>
-        <v>115560000</v>
-      </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+        <v>14703328440</v>
+      </c>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
     </row>
     <row r="14">
-      <c r="A14" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35">
+      <c r="A14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36">
         <f t="shared" ref="C14:N14" si="2">C13</f>
-        <v>115560000</v>
-      </c>
-      <c r="D14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="D14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="E14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="E14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="F14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="F14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="G14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="G14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="H14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="H14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="I14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="I14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="J14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="J14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="K14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="K14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="L14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="L14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="M14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="M14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="N14" s="35">
+        <v>14703328440</v>
+      </c>
+      <c r="N14" s="36">
         <f t="shared" si="2"/>
-        <v>115560000</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+        <v>14703328440</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
     </row>
     <row r="15">
-      <c r="A15" s="29" t="s">
-        <v>63</v>
+      <c r="A15" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2655,284 +2954,284 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
     </row>
     <row r="16">
-      <c r="A16" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="35">
+      <c r="A16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="36">
         <f>C8</f>
-        <v>570000000</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+        <v>6000000000</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
     </row>
     <row r="17">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="33">
+      <c r="B17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="34">
         <f t="shared" ref="C17:N17" si="3">$I$8</f>
-        <v>10000000</v>
-      </c>
-      <c r="D17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="D17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="E17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="E17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="F17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="F17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="G17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="G17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="H17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="H17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="I17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="I17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="J17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="J17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="K17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="K17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="L17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="L17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="M17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="M17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="N17" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="N17" s="34">
         <f t="shared" si="3"/>
-        <v>10000000</v>
-      </c>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+        <v>45000000</v>
+      </c>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
     </row>
     <row r="18">
-      <c r="A18" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="33">
+      <c r="A18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="34">
         <f t="shared" ref="C18:N18" si="4">$F$8</f>
         <v>0</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19">
-      <c r="A19" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="A19" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="36">
         <f t="shared" ref="B19:N19" si="5">SUM(B16:B18)</f>
-        <v>570000000</v>
-      </c>
-      <c r="C19" s="33">
+        <v>6000000000</v>
+      </c>
+      <c r="C19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="D19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="D19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="E19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="E19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="F19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="F19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="G19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="G19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="H19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="H19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="I19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="I19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="J19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="J19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="K19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="K19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="L19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="L19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="M19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="M19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="N19" s="33">
+        <v>45000000</v>
+      </c>
+      <c r="N19" s="34">
         <f t="shared" si="5"/>
-        <v>10000000</v>
-      </c>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+        <v>45000000</v>
+      </c>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20">
-      <c r="A20" s="37" t="s">
-        <v>67</v>
+      <c r="A20" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2947,925 +3246,932 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21">
-      <c r="A21" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="35">
+      <c r="A21" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="36">
         <f t="shared" ref="B21:N21" si="6">B14-B19</f>
-        <v>-570000000</v>
-      </c>
-      <c r="C21" s="35">
+        <v>-6000000000</v>
+      </c>
+      <c r="C21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="D21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="D21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="E21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="E21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="F21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="F21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="G21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="G21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="H21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="H21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="I21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="I21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="J21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="J21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="K21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="K21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="L21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="L21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="M21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="M21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="N21" s="35">
+        <v>14658328440</v>
+      </c>
+      <c r="N21" s="36">
         <f t="shared" si="6"/>
-        <v>105560000</v>
-      </c>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+        <v>14658328440</v>
+      </c>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
     </row>
     <row r="22">
-      <c r="A22" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="35">
+      <c r="A22" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="36">
         <f t="shared" ref="B22:N22" si="7">(B21/(1+$B$27)^B11)</f>
-        <v>-570000000</v>
-      </c>
-      <c r="C22" s="35">
+        <v>-6000000000</v>
+      </c>
+      <c r="C22" s="36">
         <f t="shared" si="7"/>
-        <v>100533333.3</v>
-      </c>
-      <c r="D22" s="35">
+        <v>13960312800</v>
+      </c>
+      <c r="D22" s="36">
         <f t="shared" si="7"/>
-        <v>95746031.75</v>
-      </c>
-      <c r="E22" s="35">
+        <v>13295536000</v>
+      </c>
+      <c r="E22" s="36">
         <f t="shared" si="7"/>
-        <v>91186696.9</v>
-      </c>
-      <c r="F22" s="35">
+        <v>12662415238</v>
+      </c>
+      <c r="F22" s="36">
         <f t="shared" si="7"/>
-        <v>86844473.24</v>
-      </c>
-      <c r="G22" s="35">
+        <v>12059443084</v>
+      </c>
+      <c r="G22" s="36">
         <f t="shared" si="7"/>
-        <v>82709022.13</v>
-      </c>
-      <c r="H22" s="35">
+        <v>11485183889</v>
+      </c>
+      <c r="H22" s="36">
         <f t="shared" si="7"/>
-        <v>78770497.27</v>
-      </c>
-      <c r="I22" s="35">
+        <v>10938270371</v>
+      </c>
+      <c r="I22" s="36">
         <f t="shared" si="7"/>
-        <v>75019521.21</v>
-      </c>
-      <c r="J22" s="35">
+        <v>10417400353</v>
+      </c>
+      <c r="J22" s="36">
         <f t="shared" si="7"/>
-        <v>71447163.06</v>
-      </c>
-      <c r="K22" s="35">
+        <v>9921333670</v>
+      </c>
+      <c r="K22" s="36">
         <f t="shared" si="7"/>
-        <v>68044917.2</v>
-      </c>
-      <c r="L22" s="35">
+        <v>9448889209</v>
+      </c>
+      <c r="L22" s="36">
         <f t="shared" si="7"/>
-        <v>64804683.04</v>
-      </c>
-      <c r="M22" s="35">
+        <v>8998942104</v>
+      </c>
+      <c r="M22" s="36">
         <f t="shared" si="7"/>
-        <v>61718745.76</v>
-      </c>
-      <c r="N22" s="35">
+        <v>8570421051</v>
+      </c>
+      <c r="N22" s="36">
         <f t="shared" si="7"/>
-        <v>58779757.86</v>
-      </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+        <v>8162305763</v>
+      </c>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
     </row>
     <row r="23">
-      <c r="A23" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="39">
+      <c r="A23" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="40">
         <f>B22</f>
-        <v>-570000000</v>
-      </c>
-      <c r="C23" s="40">
+        <v>-6000000000</v>
+      </c>
+      <c r="C23" s="41">
         <f t="shared" ref="C23:N23" si="8">C22+B23</f>
-        <v>-469466666.7</v>
-      </c>
-      <c r="D23" s="40">
+        <v>7960312800</v>
+      </c>
+      <c r="D23" s="41">
         <f t="shared" si="8"/>
-        <v>-373720634.9</v>
-      </c>
-      <c r="E23" s="40">
+        <v>21255848800</v>
+      </c>
+      <c r="E23" s="41">
         <f t="shared" si="8"/>
-        <v>-282533938</v>
-      </c>
-      <c r="F23" s="40">
+        <v>33918264038</v>
+      </c>
+      <c r="F23" s="41">
         <f t="shared" si="8"/>
-        <v>-195689464.8</v>
-      </c>
-      <c r="G23" s="40">
+        <v>45977707122</v>
+      </c>
+      <c r="G23" s="41">
         <f t="shared" si="8"/>
-        <v>-112980442.6</v>
-      </c>
-      <c r="H23" s="40">
+        <v>57462891011</v>
+      </c>
+      <c r="H23" s="41">
         <f t="shared" si="8"/>
-        <v>-34209945.38</v>
-      </c>
-      <c r="I23" s="40">
+        <v>68401161382</v>
+      </c>
+      <c r="I23" s="41">
         <f t="shared" si="8"/>
-        <v>40809575.83</v>
-      </c>
-      <c r="J23" s="40">
+        <v>78818561736</v>
+      </c>
+      <c r="J23" s="41">
         <f t="shared" si="8"/>
-        <v>112256738.9</v>
-      </c>
-      <c r="K23" s="40">
+        <v>88739895405</v>
+      </c>
+      <c r="K23" s="41">
         <f t="shared" si="8"/>
-        <v>180301656.1</v>
-      </c>
-      <c r="L23" s="40">
+        <v>98188784615</v>
+      </c>
+      <c r="L23" s="41">
         <f t="shared" si="8"/>
-        <v>245106339.1</v>
-      </c>
-      <c r="M23" s="40">
+        <v>107187726719</v>
+      </c>
+      <c r="M23" s="41">
         <f t="shared" si="8"/>
-        <v>306825084.9</v>
-      </c>
-      <c r="N23" s="40">
+        <v>115758147770</v>
+      </c>
+      <c r="N23" s="41">
         <f t="shared" si="8"/>
-        <v>365604842.7</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+        <v>123920453533</v>
+      </c>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
     </row>
     <row r="24">
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
     </row>
     <row r="25">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="s">
-        <v>71</v>
+      <c r="A26" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
     </row>
     <row r="27">
-      <c r="A27" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="42">
+      <c r="A27" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="43">
         <v>0.05</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
     </row>
     <row r="28">
-      <c r="A28" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="44">
+      <c r="A28" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="45">
         <f t="array" ref="B28">NPV(B27,C21:N21)</f>
-        <v>935604842.7</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+        <v>129920453533</v>
+      </c>
+      <c r="C28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
     </row>
     <row r="29">
-      <c r="A29" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="44">
+      <c r="A29" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="45">
         <f>C8</f>
-        <v>570000000</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+        <v>6000000000</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="46">
+      <c r="A30" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="47">
         <f>B28-B29</f>
-        <v>365604842.7</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+        <v>123920453533</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
     </row>
     <row r="31">
-      <c r="A31" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="48">
+      <c r="A31" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="49">
         <f>IRR(B21:N21)</f>
-        <v>0.1509039097</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
+        <v>2.44305386</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="50">
+      <c r="A32" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="51">
         <v>7.0</v>
       </c>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
     </row>
     <row r="33">
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
     </row>
     <row r="34">
-      <c r="A34" s="29" t="s">
-        <v>77</v>
+      <c r="A34" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
     </row>
     <row r="35">
-      <c r="A35" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="35">
+      <c r="A35" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="36">
         <f>SUM(C14:N14)</f>
-        <v>1386720000</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+        <v>176439941280</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
     </row>
     <row r="36">
-      <c r="A36" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="35">
+      <c r="A36" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="36">
         <f>SUM(C19:N19)</f>
-        <v>120000000</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+        <v>540000000</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
     </row>
     <row r="37">
-      <c r="A37" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="35">
+      <c r="A37" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="36">
         <f>B35-B36</f>
-        <v>1266720000</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+        <v>175899941280</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
     </row>
     <row r="38">
-      <c r="A38" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="35">
+      <c r="A38" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="36">
         <v>0.0</v>
       </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39">
-      <c r="A39" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="35">
+      <c r="A39" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="36">
         <f>B37-B38</f>
-        <v>1266720000</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+        <v>175899941280</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
     </row>
     <row r="40">
-      <c r="A40" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="35">
+      <c r="A40" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="36">
         <f>B39*0.19</f>
-        <v>240676800</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
+        <v>33420988843</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41">
-      <c r="A41" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="35">
+      <c r="A41" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="36">
         <f>B39-B40</f>
-        <v>1026043200</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
+        <v>142478952437</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
     </row>
     <row r="42">
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
+      <c r="A42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="7">
+        <f>(B41-C8)/(C8)</f>
+        <v>22.74649207</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
     </row>
     <row r="43">
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
     </row>
     <row r="44">
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
     </row>
     <row r="45">
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
     </row>
     <row r="46">
-      <c r="A46" s="51"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
     </row>
     <row r="47">
-      <c r="A47" s="51"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
     </row>
     <row r="48">
-      <c r="A48" s="51"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="31"/>
+      <c r="X48" s="31"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3893,84 +4199,330 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="11.13"/>
+    <col customWidth="1" min="6" max="6" width="19.0"/>
+  </cols>
   <sheetData>
     <row r="2">
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="54">
+        <v>250.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>86</v>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="55">
+        <f>F3*30</f>
+        <v>7500</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="11">
-        <v>8000000.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="11">
-        <v>8000000.0</v>
+      <c r="E5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="55">
+        <f>F4*228.28</f>
+        <v>1712100</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="11">
-        <v>8000000.0</v>
-      </c>
+      <c r="B7" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8">
-      <c r="B8" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="11">
-        <v>8000000.0</v>
-      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="I8" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C9" s="11">
         <v>8000000.0</v>
       </c>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C10" s="11">
         <v>8000000.0</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G10" s="55">
+        <f t="shared" ref="G10:G16" si="1">F10*$F$5</f>
+        <v>15408900</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="61">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="62">
+        <f t="shared" ref="K10:K16" si="2">J10*$F$5</f>
+        <v>15408900</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C11" s="11">
         <v>8000000.0</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="55">
+        <f t="shared" si="1"/>
+        <v>5136300</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="61">
+        <v>6.0</v>
+      </c>
+      <c r="K11" s="62">
+        <f t="shared" si="2"/>
+        <v>10272600</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="11">
+        <v>8000000.0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G12" s="55">
+        <f t="shared" si="1"/>
+        <v>5136300</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="K12" s="62">
+        <f t="shared" si="2"/>
+        <v>5136300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="11">
+        <v>8000000.0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="55">
+        <f t="shared" si="1"/>
+        <v>5136300</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="K13" s="62">
+        <f t="shared" si="2"/>
+        <v>5136300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="11">
+        <v>8000000.0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G14" s="55">
+        <f t="shared" si="1"/>
+        <v>15408900</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="K14" s="62">
+        <f t="shared" si="2"/>
+        <v>5136300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="11">
+        <v>8000000.0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="G15" s="55">
+        <f t="shared" si="1"/>
+        <v>46226700</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="2"/>
+        <v>5136300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="G16" s="55">
+        <f t="shared" si="1"/>
+        <v>46226700</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="63">
+        <v>3.0</v>
+      </c>
+      <c r="K16" s="62">
+        <f t="shared" si="2"/>
+        <v>5136300</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="55">
+        <f>SUM(G10:G16)</f>
+        <v>138680100</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="55">
+        <f>SUM(K10:K16)</f>
+        <v>51363000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="55">
+        <f>G17-K17</f>
+        <v>87317100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:C3"/>
+  <mergeCells count="7">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Propuesta Económica/EvalEconomica.xlsx
+++ b/Propuesta Económica/EvalEconomica.xlsx
@@ -6,9 +6,12 @@
     <sheet state="visible" name="CeldaRobotizada" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Comunicaciones" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="SCADA" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Ingresos" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Evaluacion" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Nómina" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Ingresos - Ventas de los produc" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Materia Prima" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Año 0 - Proyecto" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Nómina - Año 0" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Nómina - Puesta en marcha" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Evaluacion" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
   <si>
     <t>v</t>
   </si>
   <si>
-    <t>Costos capitalizados</t>
+    <t>Costos maquinas</t>
   </si>
   <si>
     <t>Equipos</t>
@@ -63,7 +66,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Costos no capitalizados</t>
+    <t>Costos de mano de obra de instalación</t>
   </si>
   <si>
     <t>Equipos de movimiento/manipulación</t>
@@ -81,192 +84,402 @@
     <t>Total inversión inicial</t>
   </si>
   <si>
+    <t>Costos operativos (Cuando esté puesto en marcha)</t>
+  </si>
+  <si>
+    <t>Consumo energético</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Seguro</t>
+  </si>
+  <si>
+    <t>Software (Licencias)</t>
+  </si>
+  <si>
+    <t>Depreciación</t>
+  </si>
+  <si>
+    <t>Routers</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>Módems</t>
+  </si>
+  <si>
+    <t>Cableado</t>
+  </si>
+  <si>
+    <t>Conversores de protocolo</t>
+  </si>
+  <si>
+    <t>Repetidores</t>
+  </si>
+  <si>
+    <t>Software de configuración</t>
+  </si>
+  <si>
+    <t>Elementos de soporte</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>HMI</t>
+  </si>
+  <si>
+    <t>Módulos PLC</t>
+  </si>
+  <si>
+    <t>Cableados de red</t>
+  </si>
+  <si>
+    <t>Servidor SCADA</t>
+  </si>
+  <si>
+    <t>Software SCADA</t>
+  </si>
+  <si>
+    <t>Seguridad eléctrica</t>
+  </si>
+  <si>
+    <t>Elementos mecánicos del tablero</t>
+  </si>
+  <si>
+    <t>Precio m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piso Pared Cerámico Avellano Beige 30x60cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerámica Para Pared Estilo Decorativo Atelier-B 30x60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pared Santa Maria Brillante Multicolor 30x45 </t>
+  </si>
+  <si>
+    <t>Producto 1 - Baldosa mate 30x60</t>
+  </si>
+  <si>
+    <t>Producto 2 - Baldosa esmaltada decorada 30x60</t>
+  </si>
+  <si>
+    <t>Producto 3 - Baldosa texturizada 30x60</t>
+  </si>
+  <si>
+    <t>Tamaño lote (m^2)</t>
+  </si>
+  <si>
+    <t>m^2 producidos</t>
+  </si>
+  <si>
+    <t>Lotes producidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de un lote </t>
+  </si>
+  <si>
+    <t>Lotes vendidos al mes</t>
+  </si>
+  <si>
+    <t>Total ganancia mensual</t>
+  </si>
+  <si>
+    <t>Precio m^2 promedio</t>
+  </si>
+  <si>
+    <t>Ganancias x producto</t>
+  </si>
+  <si>
+    <t>Producción m^2 (planta actual)</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>% participación</t>
+  </si>
+  <si>
+    <t>Producción m^2 (planta automatizada)</t>
+  </si>
+  <si>
+    <t>Aumento de la producción en m^2</t>
+  </si>
+  <si>
+    <t>Total ganancia mensual promedio</t>
+  </si>
+  <si>
+    <t>Total (Mensual)</t>
+  </si>
+  <si>
+    <t>Total (anual)</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento de ventas (anual)</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>TOTAL INGRESOS</t>
+  </si>
+  <si>
+    <t>Materias primas para fabricar baldosa</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t>Precio por kg</t>
+  </si>
+  <si>
+    <t>Cantidad necesaria</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Total por m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total costo mensual </t>
+  </si>
+  <si>
+    <t>Total costo anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aumento de precio </t>
+  </si>
+  <si>
+    <t>Inversión inicial (Materiales)</t>
+  </si>
+  <si>
+    <t>Costos de nómina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costos de instalación </t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Celda robotizada</t>
+  </si>
+  <si>
+    <t>Ingenieros</t>
+  </si>
+  <si>
+    <t>Producto 1</t>
+  </si>
+  <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
+    <t>Mano de obra</t>
+  </si>
+  <si>
+    <t>Producto 2</t>
+  </si>
+  <si>
+    <t>SCADA</t>
+  </si>
+  <si>
+    <t>Producto 3</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>EGRESOS</t>
+  </si>
+  <si>
+    <t>Inversión</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Costos de instalación</t>
+  </si>
+  <si>
+    <t>TOTAL EGRESOS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Flujo de caja</t>
+  </si>
+  <si>
+    <t>Valor presente</t>
+  </si>
+  <si>
+    <t>Valor presente acumulado</t>
+  </si>
+  <si>
+    <t>Costo de oportunidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VP </t>
+  </si>
+  <si>
+    <t>Inversión inicial</t>
+  </si>
+  <si>
+    <t>VPN (Año 0)</t>
+  </si>
+  <si>
+    <t>Salario (MXN)</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>En COP</t>
+  </si>
+  <si>
+    <t>Personal para instalación, movimiento de cargas, etc</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Salario</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Cantidad de personal</t>
+  </si>
+  <si>
+    <t>Ingeniero 2</t>
+  </si>
+  <si>
+    <t>Transportes</t>
+  </si>
+  <si>
+    <t>Ingeniero 3</t>
+  </si>
+  <si>
+    <t>Ingeniero 4</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Ingeniero 5</t>
+  </si>
+  <si>
+    <t>Ingeniero 6</t>
+  </si>
+  <si>
+    <t>Ingeniero 7</t>
+  </si>
+  <si>
+    <t>Planta actual</t>
+  </si>
+  <si>
+    <t>Planta automatizada</t>
+  </si>
+  <si>
+    <t>Operadores</t>
+  </si>
+  <si>
+    <t>Prensado</t>
+  </si>
+  <si>
+    <t>Esmaltado</t>
+  </si>
+  <si>
+    <t>Esmaltado+Engobe</t>
+  </si>
+  <si>
+    <t>Impresión</t>
+  </si>
+  <si>
+    <t>Horneado</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Empacado</t>
+  </si>
+  <si>
+    <t>Paletizado</t>
+  </si>
+  <si>
+    <t>Delta salarios</t>
+  </si>
+  <si>
+    <t>Aumento anual</t>
+  </si>
+  <si>
+    <t>Año 0</t>
+  </si>
+  <si>
     <t>Costos operativos</t>
   </si>
   <si>
-    <t>Consumo energético</t>
-  </si>
-  <si>
-    <t>Mantenimiento</t>
-  </si>
-  <si>
-    <t>Seguro</t>
-  </si>
-  <si>
-    <t>Software (Licencias)</t>
-  </si>
-  <si>
-    <t>Depreciación</t>
-  </si>
-  <si>
-    <t>Routers</t>
-  </si>
-  <si>
-    <t>Switches</t>
-  </si>
-  <si>
-    <t>Módems</t>
-  </si>
-  <si>
-    <t>Cableado</t>
-  </si>
-  <si>
-    <t>Conversores de protocolo</t>
-  </si>
-  <si>
-    <t>Repetidores</t>
-  </si>
-  <si>
-    <t>Software de configuración</t>
-  </si>
-  <si>
-    <t>Elementos de soporte</t>
-  </si>
-  <si>
-    <t>PLC</t>
-  </si>
-  <si>
-    <t>HMI</t>
-  </si>
-  <si>
-    <t>Módulos PLC</t>
-  </si>
-  <si>
-    <t>Cableados de red</t>
-  </si>
-  <si>
-    <t>Servidor SCADA</t>
-  </si>
-  <si>
-    <t>Software SCADA</t>
-  </si>
-  <si>
-    <t>Seguridad eléctrica</t>
-  </si>
-  <si>
-    <t>Elementos mecánicos del tablero</t>
-  </si>
-  <si>
-    <t>Precio m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piso Pared Cerámico Avellano Beige 30x60cm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerámica Para Pared Estilo Decorativo Atelier-B 30x60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pared Santa Maria Brillante Multicolor 30x45 </t>
-  </si>
-  <si>
-    <t>Producto 1 - Baldosa mate 30x60</t>
-  </si>
-  <si>
-    <t>Producto 2 - Baldosa esmaltada decorada 30x60</t>
-  </si>
-  <si>
-    <t>Producto 2 - Baldosa texturizada 30x60</t>
-  </si>
-  <si>
-    <t>Tamaño lote (m^2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio de un lote </t>
-  </si>
-  <si>
-    <t>Lotes vendidos al mes</t>
-  </si>
-  <si>
-    <t>Total ganancia mensual</t>
-  </si>
-  <si>
-    <t>Precio m^2 promedio</t>
-  </si>
-  <si>
-    <t>Producción m^2 (planta actual)</t>
-  </si>
-  <si>
-    <t>Producción m^2 (planta automatizada)</t>
-  </si>
-  <si>
-    <t>Aumento de la producción en m^2</t>
-  </si>
-  <si>
-    <t>Total ganancia mensual promedio</t>
-  </si>
-  <si>
-    <t>Inversión inicial</t>
-  </si>
-  <si>
-    <t>Costos de nómina</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Celda robotizada</t>
-  </si>
-  <si>
-    <t>Producto 1</t>
-  </si>
-  <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
-    <t>Producto 2</t>
-  </si>
-  <si>
-    <t>SCADA</t>
-  </si>
-  <si>
-    <t>Producto 3</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>INGRESOS</t>
-  </si>
-  <si>
-    <t>TOTAL INGRESOS</t>
-  </si>
-  <si>
-    <t>EGRESOS</t>
-  </si>
-  <si>
-    <t>Inversión</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TOTAL EGRESOS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Flujo de caja</t>
-  </si>
-  <si>
-    <t>Valor presente</t>
-  </si>
-  <si>
-    <t>Valor presente acumulado</t>
+    <t>Delta salarios operarios</t>
+  </si>
+  <si>
+    <t>Nómina</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>Materia prima</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Utilidad bruta</t>
+  </si>
+  <si>
+    <t>Gasto financiero</t>
+  </si>
+  <si>
+    <t>Utilidad antes de impuestos</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>Depreciaciones</t>
+  </si>
+  <si>
+    <t>Utilidad neta</t>
   </si>
   <si>
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Costo de oportunidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VP </t>
-  </si>
-  <si>
     <t>VPN</t>
   </si>
   <si>
@@ -276,109 +489,13 @@
     <t>Payback</t>
   </si>
   <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>TIR (financiero)</t>
+  </si>
+  <si>
     <t>ESTADO DE PERDIDAS Y GANANCIAS</t>
-  </si>
-  <si>
-    <t>Costos</t>
-  </si>
-  <si>
-    <t>Utilidad bruta</t>
-  </si>
-  <si>
-    <t>Gasto financiero</t>
-  </si>
-  <si>
-    <t>Utilidad antes de impuestos</t>
-  </si>
-  <si>
-    <t>Impuestos</t>
-  </si>
-  <si>
-    <t>Utilidad neta</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>Salario (MXN)</t>
-  </si>
-  <si>
-    <t>Diario</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
-    <t>En COP</t>
-  </si>
-  <si>
-    <t>Nómina</t>
-  </si>
-  <si>
-    <t>Planta actual</t>
-  </si>
-  <si>
-    <t>Planta automatizada</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Salario</t>
-  </si>
-  <si>
-    <t>Operadores</t>
-  </si>
-  <si>
-    <t>Ingeniero 1</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>Cantidad de personal</t>
-  </si>
-  <si>
-    <t>Ingeniero 2</t>
-  </si>
-  <si>
-    <t>Prensado</t>
-  </si>
-  <si>
-    <t>Ingeniero 3</t>
-  </si>
-  <si>
-    <t>Esmaltado</t>
-  </si>
-  <si>
-    <t>Ingeniero 4</t>
-  </si>
-  <si>
-    <t>Impresión</t>
-  </si>
-  <si>
-    <t>Ingeniero 5</t>
-  </si>
-  <si>
-    <t>Horneado</t>
-  </si>
-  <si>
-    <t>Ingeniero 6</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>Ingeniero 7</t>
-  </si>
-  <si>
-    <t>Empacado</t>
-  </si>
-  <si>
-    <t>Paletizado</t>
-  </si>
-  <si>
-    <t>Delta salarios</t>
   </si>
 </sst>
 </file>
@@ -422,7 +539,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +562,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -561,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -591,7 +714,6 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -607,13 +729,18 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -622,6 +749,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,7 +760,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -640,6 +768,19 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -674,27 +815,8 @@
     <xf borderId="12" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -718,6 +840,43 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -776,17 +935,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Evaluacion!$C$23:$N$23</c:f>
+              <c:f>Evaluacion!$C$24:$N$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1419807756"/>
-        <c:axId val="2029599027"/>
+        <c:axId val="1808193042"/>
+        <c:axId val="805828592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1419807756"/>
+        <c:axId val="1808193042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,10 +997,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2029599027"/>
+        <c:crossAx val="805828592"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2029599027"/>
+        <c:axId val="805828592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +1075,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1419807756"/>
+        <c:crossAx val="1808193042"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -943,36 +1102,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7648575" cy="5276850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,14 +1118,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2457450" cy="2390775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1023,7 +1153,7 @@
     <xdr:ext cx="2733675" cy="2390775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1046,12 +1176,12 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2676525" cy="2333625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1073,13 +1203,29 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -1100,10 +1246,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,10 +1694,6 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="H30" s="13">
-        <f>75000/500</f>
-        <v>150</v>
-      </c>
     </row>
     <row r="31">
       <c r="B31" s="6" t="s">
@@ -1579,7 +1717,7 @@
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <f>E32</f>
         <v>15000000</v>
       </c>
@@ -1857,7 +1995,7 @@
       <c r="B31" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <f>E30</f>
         <v>15000000</v>
       </c>
@@ -2151,7 +2289,7 @@
       <c r="B33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <f>E32</f>
         <v>15000000</v>
       </c>
@@ -2184,8 +2322,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="18.5"/>
+    <col customWidth="1" min="3" max="3" width="15.63"/>
     <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="6" max="6" width="18.5"/>
+    <col customWidth="1" min="5" max="5" width="14.88"/>
+    <col customWidth="1" min="6" max="6" width="20.63"/>
+    <col customWidth="1" min="7" max="7" width="15.38"/>
+    <col customWidth="1" min="8" max="8" width="5.88"/>
     <col customWidth="1" min="10" max="10" width="19.88"/>
     <col customWidth="1" min="12" max="12" width="6.5"/>
   </cols>
@@ -2211,13 +2353,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2239,134 +2381,134 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6">
-      <c r="B6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="F6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="J6" s="19"/>
-      <c r="L6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7">
-      <c r="B7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="F7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="J7" s="19"/>
-      <c r="L7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8">
-      <c r="B8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9">
-      <c r="B9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="J9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10">
-      <c r="B10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11">
-      <c r="B11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="F11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="J11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12">
-      <c r="B12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="19"/>
-      <c r="H12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13">
-      <c r="B13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14">
-      <c r="B14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15">
-      <c r="B15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="F15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="J15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16">
-      <c r="B16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18">
       <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>1.62</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>1.44</v>
       </c>
       <c r="H18" s="4"/>
       <c r="J18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="23">
         <v>1.89</v>
       </c>
       <c r="L18" s="4"/>
@@ -2375,25 +2517,22 @@
       <c r="B19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9">
-        <f>C18*C2</f>
-        <v>66906</v>
+      <c r="C19" s="23">
+        <v>30000.0</v>
       </c>
       <c r="D19" s="4"/>
       <c r="F19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="9">
-        <f>G18*G2</f>
-        <v>114507.36</v>
+      <c r="G19" s="23">
+        <v>30000.0</v>
       </c>
       <c r="H19" s="4"/>
       <c r="J19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="9">
-        <f>K18*K2</f>
-        <v>72387</v>
+      <c r="K19" s="23">
+        <v>15000.0</v>
       </c>
       <c r="L19" s="4"/>
     </row>
@@ -2401,22 +2540,25 @@
       <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="25">
-        <v>70000.0</v>
+      <c r="C20" s="24">
+        <f>C19/C18</f>
+        <v>18518.51852</v>
       </c>
       <c r="D20" s="4"/>
       <c r="F20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="25">
-        <v>54000.0</v>
+      <c r="G20" s="24">
+        <f>G19/G18</f>
+        <v>20833.33333</v>
       </c>
       <c r="H20" s="4"/>
       <c r="J20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="25">
-        <v>53000.0</v>
+      <c r="K20" s="24">
+        <f>K19/K18</f>
+        <v>7936.507937</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -2425,109 +2567,422 @@
         <v>53</v>
       </c>
       <c r="C21" s="9">
-        <f>C20*C19</f>
-        <v>4683420000</v>
+        <f>C18*C2</f>
+        <v>66906</v>
       </c>
       <c r="D21" s="4"/>
       <c r="F21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="G21" s="9">
-        <f>G20*G19</f>
-        <v>6183397440</v>
+        <f>G18*G2</f>
+        <v>114507.36</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="K21" s="9">
-        <f>K20*K19</f>
-        <v>3836511000</v>
+        <f>K18*K2</f>
+        <v>72387</v>
       </c>
       <c r="L21" s="4"/>
     </row>
+    <row r="22">
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="25">
+        <f>C20*0.8</f>
+        <v>14814.81481</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="25">
+        <f>G20*0.8</f>
+        <v>16666.66667</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="25">
+        <f>K20*0.8</f>
+        <v>6349.206349</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
     <row r="23">
+      <c r="B23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="9">
+        <f>C22*C21</f>
+        <v>991200000</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="F23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8">
-        <f>SUM(C21+G21+K21)</f>
-        <v>14703328440</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8">
-        <f>AVERAGE(C2,G2,K2)</f>
-        <v>53039.66667</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="6">
-        <v>233000.0</v>
-      </c>
+      <c r="G23" s="9">
+        <f>G22*G21</f>
+        <v>1908456000</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="9">
+        <f>K22*K21</f>
+        <v>459600000</v>
+      </c>
+      <c r="L23" s="4"/>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6">
-        <v>510000.0</v>
-      </c>
+      <c r="D26" s="8">
+        <f>AVERAGE(C2,G2,K2)</f>
+        <v>53039.66667</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="7">
-        <f>D26-D25</f>
-        <v>277000</v>
+      <c r="D27" s="6">
+        <v>374803.2</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="8">
-        <f>D27*D24</f>
-        <v>14691987667</v>
-      </c>
+      <c r="D28" s="6">
+        <v>442065.6</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="8">
+        <f>C23</f>
+        <v>991200000</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" ref="H28:H30" si="1">G28*12</f>
+        <v>11894400000</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="27">
+        <f t="shared" ref="J28:J31" si="2">H28/$H$31</f>
+        <v>0.2950653359</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="7">
+        <f>D28-D27</f>
+        <v>67262.4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="G29" s="8">
+        <f>G23</f>
+        <v>1908456000</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="1"/>
+        <v>22901472000</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="27">
+        <f t="shared" si="2"/>
+        <v>0.5681186548</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="8">
+        <f>D29*D26</f>
+        <v>3567575275</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G30" s="8">
+        <f>K23</f>
+        <v>459600000</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="1"/>
+        <v>5515200000</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="27">
+        <f t="shared" si="2"/>
+        <v>0.1368160093</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="8">
+        <f>SUM(C23+G23+K23)</f>
+        <v>3359256000</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:H31" si="3">SUM(G28:G30)</f>
+        <v>3359256000</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="3"/>
+        <v>40311072000</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="8">
+        <f>D31*12</f>
+        <v>40311072000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="F35" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="G35" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32">
+        <f>K22+G22+C22</f>
+        <v>37830.68783</v>
+      </c>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="37">
+        <f>D32</f>
+        <v>40311072000</v>
+      </c>
+      <c r="D37" s="37">
+        <f t="shared" ref="D37:G37" si="4">C37*D33+C37</f>
+        <v>44342179200</v>
+      </c>
+      <c r="E37" s="37">
+        <f t="shared" si="4"/>
+        <v>44342179200</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="4"/>
+        <v>44342179200</v>
+      </c>
+      <c r="G37" s="37">
+        <f t="shared" si="4"/>
+        <v>44342179200</v>
+      </c>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="39">
+        <f t="shared" ref="C38:G38" si="5">C37</f>
+        <v>40311072000</v>
+      </c>
+      <c r="D38" s="39">
+        <f t="shared" si="5"/>
+        <v>44342179200</v>
+      </c>
+      <c r="E38" s="39">
+        <f t="shared" si="5"/>
+        <v>44342179200</v>
+      </c>
+      <c r="F38" s="39">
+        <f t="shared" si="5"/>
+        <v>44342179200</v>
+      </c>
+      <c r="G38" s="39">
+        <f t="shared" si="5"/>
+        <v>44342179200</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="39">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="J5:L17"/>
+    <mergeCell ref="B5:D17"/>
+    <mergeCell ref="F5:H17"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="F5:H17"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J5:L17"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B3"/>
@@ -2541,7 +2996,130 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="17.13"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="41">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="40">
+        <f>SUM(E4:E8)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="40">
+        <f>E9*'Ingresos - Ventas de los produc'!D29</f>
+        <v>1345248000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="40">
+        <f>E10*12</f>
+        <v>16142976000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="42">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF783F04"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2559,44 +3137,44 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="B3" s="26" t="s">
-        <v>59</v>
+      <c r="B3" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="E3" s="26" t="s">
-        <v>60</v>
+      <c r="E3" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="H3" s="26" t="s">
-        <v>21</v>
+      <c r="H3" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="K3" s="26" t="s">
-        <v>61</v>
+      <c r="K3" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4">
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
@@ -2604,89 +3182,89 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C5" s="11">
         <f>CeldaRobotizada!C23</f>
         <v>2000000000</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F5" s="11">
-        <v>0.0</v>
+        <f>'Nómina - Año 0'!C16</f>
+        <v>56000000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I5" s="11">
         <f>CeldaRobotizada!C33</f>
         <v>15000000</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L5" s="11">
-        <f>Ingresos!C21</f>
-        <v>4683420000</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11">
         <f>Comunicaciones!C21</f>
         <v>2000000000</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F6" s="11">
-        <v>0.0</v>
+        <f>'Nómina - Año 0'!G17</f>
+        <v>102726000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I6" s="11">
         <f>Comunicaciones!C31</f>
         <v>15000000</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="L6" s="11">
-        <f>Ingresos!G21</f>
-        <v>6183397440</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C7" s="11">
         <f>SCADA!C23</f>
         <v>2000000000</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>67</v>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F7" s="11">
-        <v>0.0</v>
+        <f>SUM(F5:F6)</f>
+        <v>158726000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I7" s="11">
         <f>SCADA!C33</f>
         <v>15000000</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="L7" s="11">
-        <f>Ingresos!K21</f>
-        <v>3836511000</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -2697,13 +3275,6 @@
         <f>SUM(C5:C7)</f>
         <v>6000000000</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="11">
-        <f>SUM(F5:F7)</f>
-        <v>0</v>
-      </c>
       <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2716,67 +3287,67 @@
       </c>
       <c r="L8" s="11">
         <f>SUM(L5:L7)</f>
-        <v>14703328440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="A11" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="30">
         <v>0.0</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="30">
         <v>1.0</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="30">
         <v>2.0</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="30">
         <v>3.0</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="30">
         <v>4.0</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="30">
         <v>5.0</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="30">
         <v>6.0</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="30">
         <v>7.0</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="30">
         <v>8.0</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="30">
         <v>9.0</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="30">
         <v>10.0</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="30">
         <v>11.0</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="30">
         <v>12.0</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="3"/>
@@ -2792,154 +3363,154 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34">
+      <c r="A13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="37">
         <f t="shared" ref="C13:N13" si="1">$L$8</f>
-        <v>14703328440</v>
-      </c>
-      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="J13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="K13" s="34">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="L13" s="34">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="M13" s="34">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="N13" s="34">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37">
         <f t="shared" si="1"/>
-        <v>14703328440</v>
-      </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36">
+      <c r="A14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="39">
         <f t="shared" ref="C14:N14" si="2">C13</f>
-        <v>14703328440</v>
-      </c>
-      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="F14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="G14" s="36">
+        <v>0</v>
+      </c>
+      <c r="G14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="H14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="J14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="K14" s="36">
+        <v>0</v>
+      </c>
+      <c r="K14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="L14" s="36">
+        <v>0</v>
+      </c>
+      <c r="L14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="M14" s="36">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="N14" s="36">
+        <v>0</v>
+      </c>
+      <c r="N14" s="39">
         <f t="shared" si="2"/>
-        <v>14703328440</v>
-      </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="s">
-        <v>72</v>
+      <c r="A15" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2954,284 +3525,284 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="36">
+      <c r="A16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="39">
         <f>C8</f>
         <v>6000000000</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
+      <c r="C16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="A17" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="37">
         <f t="shared" ref="C17:N17" si="3">$I$8</f>
         <v>45000000</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="37">
         <f t="shared" si="3"/>
         <v>45000000</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="34">
-        <f t="shared" ref="C18:N18" si="4">$F$8</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="34">
+      <c r="A18" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="37">
+        <f t="shared" ref="C18:N18" si="4">$F$7</f>
+        <v>158726000</v>
+      </c>
+      <c r="D18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="E18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="F18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="G18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="H18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="I18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="J18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="K18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="L18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="M18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="34">
+        <v>158726000</v>
+      </c>
+      <c r="N18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
+        <v>158726000</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="36">
+      <c r="A19" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="39">
         <f t="shared" ref="B19:N19" si="5">SUM(B16:B18)</f>
         <v>6000000000</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="D19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="D19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="E19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="E19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="F19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="F19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="G19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="G19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="H19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="H19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="I19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="I19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="J19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="J19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="K19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="K19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="L19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="L19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="M19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="M19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="N19" s="34">
+        <v>203726000</v>
+      </c>
+      <c r="N19" s="37">
         <f t="shared" si="5"/>
-        <v>45000000</v>
-      </c>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
+        <v>203726000</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="38" t="s">
-        <v>76</v>
+      <c r="A20" s="46" t="s">
+        <v>100</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3246,937 +3817,834 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="36">
+      <c r="A21" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="39">
         <f t="shared" ref="B21:N21" si="6">B14-B19</f>
         <v>-6000000000</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="D21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="D21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="E21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="E21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="F21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="F21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="G21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="G21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="H21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="H21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="I21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="I21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="J21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="J21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="K21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="K21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="L21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="L21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="M21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="M21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="N21" s="36">
+        <v>-203726000</v>
+      </c>
+      <c r="N21" s="39">
         <f t="shared" si="6"/>
-        <v>14658328440</v>
-      </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
+        <v>-203726000</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="36">
+      <c r="A22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="39">
         <f t="shared" ref="B22:N22" si="7">(B21/(1+$B$27)^B11)</f>
         <v>-6000000000</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="39">
         <f t="shared" si="7"/>
-        <v>13960312800</v>
-      </c>
-      <c r="D22" s="36">
+        <v>-194024761.9</v>
+      </c>
+      <c r="D22" s="39">
         <f t="shared" si="7"/>
-        <v>13295536000</v>
-      </c>
-      <c r="E22" s="36">
+        <v>-184785487.5</v>
+      </c>
+      <c r="E22" s="39">
         <f t="shared" si="7"/>
-        <v>12662415238</v>
-      </c>
-      <c r="F22" s="36">
+        <v>-175986178.6</v>
+      </c>
+      <c r="F22" s="39">
         <f t="shared" si="7"/>
-        <v>12059443084</v>
-      </c>
-      <c r="G22" s="36">
+        <v>-167605884.4</v>
+      </c>
+      <c r="G22" s="39">
         <f t="shared" si="7"/>
-        <v>11485183889</v>
-      </c>
-      <c r="H22" s="36">
+        <v>-159624651.8</v>
+      </c>
+      <c r="H22" s="39">
         <f t="shared" si="7"/>
-        <v>10938270371</v>
-      </c>
-      <c r="I22" s="36">
+        <v>-152023477.9</v>
+      </c>
+      <c r="I22" s="39">
         <f t="shared" si="7"/>
-        <v>10417400353</v>
-      </c>
-      <c r="J22" s="36">
+        <v>-144784264.7</v>
+      </c>
+      <c r="J22" s="39">
         <f t="shared" si="7"/>
-        <v>9921333670</v>
-      </c>
-      <c r="K22" s="36">
+        <v>-137889775.9</v>
+      </c>
+      <c r="K22" s="39">
         <f t="shared" si="7"/>
-        <v>9448889209</v>
-      </c>
-      <c r="L22" s="36">
+        <v>-131323596.1</v>
+      </c>
+      <c r="L22" s="39">
         <f t="shared" si="7"/>
-        <v>8998942104</v>
-      </c>
-      <c r="M22" s="36">
+        <v>-125070091.5</v>
+      </c>
+      <c r="M22" s="39">
         <f t="shared" si="7"/>
-        <v>8570421051</v>
-      </c>
-      <c r="N22" s="36">
+        <v>-119114372.8</v>
+      </c>
+      <c r="N22" s="39">
         <f t="shared" si="7"/>
-        <v>8162305763</v>
-      </c>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
+        <v>-113442259.9</v>
+      </c>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="40">
+      <c r="A23" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="48">
         <f>B22</f>
         <v>-6000000000</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="49">
         <f t="shared" ref="C23:N23" si="8">C22+B23</f>
-        <v>7960312800</v>
-      </c>
-      <c r="D23" s="41">
+        <v>-6194024762</v>
+      </c>
+      <c r="D23" s="49">
         <f t="shared" si="8"/>
-        <v>21255848800</v>
-      </c>
-      <c r="E23" s="41">
+        <v>-6378810249</v>
+      </c>
+      <c r="E23" s="49">
         <f t="shared" si="8"/>
-        <v>33918264038</v>
-      </c>
-      <c r="F23" s="41">
+        <v>-6554796428</v>
+      </c>
+      <c r="F23" s="49">
         <f t="shared" si="8"/>
-        <v>45977707122</v>
-      </c>
-      <c r="G23" s="41">
+        <v>-6722402312</v>
+      </c>
+      <c r="G23" s="49">
         <f t="shared" si="8"/>
-        <v>57462891011</v>
-      </c>
-      <c r="H23" s="41">
+        <v>-6882026964</v>
+      </c>
+      <c r="H23" s="49">
         <f t="shared" si="8"/>
-        <v>68401161382</v>
-      </c>
-      <c r="I23" s="41">
+        <v>-7034050442</v>
+      </c>
+      <c r="I23" s="49">
         <f t="shared" si="8"/>
-        <v>78818561736</v>
-      </c>
-      <c r="J23" s="41">
+        <v>-7178834707</v>
+      </c>
+      <c r="J23" s="49">
         <f t="shared" si="8"/>
-        <v>88739895405</v>
-      </c>
-      <c r="K23" s="41">
+        <v>-7316724483</v>
+      </c>
+      <c r="K23" s="49">
         <f t="shared" si="8"/>
-        <v>98188784615</v>
-      </c>
-      <c r="L23" s="41">
+        <v>-7448048079</v>
+      </c>
+      <c r="L23" s="49">
         <f t="shared" si="8"/>
-        <v>107187726719</v>
-      </c>
-      <c r="M23" s="41">
+        <v>-7573118170</v>
+      </c>
+      <c r="M23" s="49">
         <f t="shared" si="8"/>
-        <v>115758147770</v>
-      </c>
-      <c r="N23" s="41">
+        <v>-7692232543</v>
+      </c>
+      <c r="N23" s="49">
         <f t="shared" si="8"/>
-        <v>123920453533</v>
-      </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
+        <v>-7805674803</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
     </row>
     <row r="24">
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25">
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="42" t="s">
-        <v>80</v>
+      <c r="A26" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
+      <c r="C26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="43">
+      <c r="A27" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="51">
         <v>0.05</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
+      <c r="C27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="45">
+      <c r="A28" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="53">
         <f t="array" ref="B28">NPV(B27,C21:N21)</f>
-        <v>129920453533</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
+        <v>-1805674803</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
     </row>
     <row r="29">
-      <c r="A29" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="45">
+      <c r="A29" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="53">
         <f>C8</f>
         <v>6000000000</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
+      <c r="C29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
     </row>
     <row r="30">
-      <c r="A30" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="47">
+      <c r="A30" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="55">
         <f>B28-B29</f>
-        <v>123920453533</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
+        <v>-7805674803</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
     </row>
     <row r="31">
-      <c r="A31" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="49">
-        <f>IRR(B21:N21)</f>
-        <v>2.44305386</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
     </row>
     <row r="32">
-      <c r="A32" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="51">
-        <v>7.0</v>
-      </c>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33">
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="36">
-        <f>SUM(C14:N14)</f>
-        <v>176439941280</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
     </row>
     <row r="36">
-      <c r="A36" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="36">
-        <f>SUM(C19:N19)</f>
-        <v>540000000</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="36">
-        <f>B35-B36</f>
-        <v>175899941280</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="36">
-        <f>B37-B38</f>
-        <v>175899941280</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
     </row>
     <row r="40">
-      <c r="A40" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="36">
-        <f>B39*0.19</f>
-        <v>33420988843</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
     </row>
     <row r="41">
-      <c r="A41" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="36">
-        <f>B39-B40</f>
-        <v>142478952437</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="7">
-        <f>(B41-C8)/(C8)</f>
-        <v>22.74649207</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
     </row>
     <row r="43">
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
     </row>
     <row r="44">
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
     </row>
     <row r="45">
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
     </row>
     <row r="46">
-      <c r="A46" s="52"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
     </row>
     <row r="47">
-      <c r="A47" s="52"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
     </row>
     <row r="48">
-      <c r="A48" s="52"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A34:B34"/>
+  <mergeCells count="8">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:I3"/>
@@ -4184,15 +4652,16 @@
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <tabColor rgb="FF999999"/>
+    <tabColor rgb="FF660000"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -4202,327 +4671,2838 @@
   <cols>
     <col customWidth="1" min="5" max="5" width="11.13"/>
     <col customWidth="1" min="6" max="6" width="19.0"/>
+    <col customWidth="1" min="7" max="7" width="14.0"/>
+    <col customWidth="1" min="9" max="9" width="16.25"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="D2" s="53"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="7"/>
       <c r="F2" s="6" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="54">
-        <v>250.0</v>
+        <v>109</v>
+      </c>
+      <c r="F3" s="41">
+        <v>300.0</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="55">
+        <v>60</v>
+      </c>
+      <c r="F4" s="40">
         <f>F3*30</f>
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="55">
+        <v>110</v>
+      </c>
+      <c r="F5" s="40">
         <f>F4*228.28</f>
-        <v>1712100</v>
+        <v>2054520</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="56" t="s">
-        <v>98</v>
+      <c r="B7" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
-      <c r="I7" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>103</v>
+        <v>113</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
     </row>
     <row r="9">
       <c r="B9" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C9" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C10" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="G10" s="55">
+        <v>6.0</v>
+      </c>
+      <c r="G10" s="40">
         <f t="shared" ref="G10:G16" si="1">F10*$F$5</f>
-        <v>15408900</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="61">
-        <v>9.0</v>
-      </c>
-      <c r="K10" s="62">
-        <f t="shared" ref="K10:K16" si="2">J10*$F$5</f>
-        <v>15408900</v>
+        <v>12327120</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C11" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F11" s="6">
         <v>3.0</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="40">
         <f t="shared" si="1"/>
-        <v>5136300</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="61">
-        <v>6.0</v>
-      </c>
-      <c r="K11" s="62">
-        <f t="shared" si="2"/>
-        <v>10272600</v>
+        <v>6163560</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C12" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F12" s="6">
         <v>3.0</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="40">
         <f t="shared" si="1"/>
-        <v>5136300</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="K12" s="62">
-        <f t="shared" si="2"/>
-        <v>5136300</v>
+        <v>6163560</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C13" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F13" s="6">
         <v>3.0</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="40">
         <f t="shared" si="1"/>
-        <v>5136300</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="K13" s="62">
-        <f t="shared" si="2"/>
-        <v>5136300</v>
+        <v>6163560</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C14" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F14" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="G14" s="55">
+        <v>5.0</v>
+      </c>
+      <c r="G14" s="40">
         <f t="shared" si="1"/>
-        <v>15408900</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="K14" s="62">
-        <f t="shared" si="2"/>
-        <v>5136300</v>
+        <v>10272600</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C15" s="11">
         <v>8000000.0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6">
-        <v>27.0</v>
-      </c>
-      <c r="G15" s="55">
+        <v>20.0</v>
+      </c>
+      <c r="G15" s="40">
         <f t="shared" si="1"/>
-        <v>46226700</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="K15" s="62">
-        <f t="shared" si="2"/>
-        <v>5136300</v>
+        <v>41090400</v>
       </c>
     </row>
     <row r="16">
+      <c r="B16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="8">
+        <f>SUM(C9:C15)</f>
+        <v>56000000</v>
+      </c>
       <c r="E16" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6">
-        <v>27.0</v>
-      </c>
-      <c r="G16" s="55">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="40">
         <f t="shared" si="1"/>
-        <v>46226700</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="63">
-        <v>3.0</v>
-      </c>
-      <c r="K16" s="62">
-        <f t="shared" si="2"/>
-        <v>5136300</v>
+        <v>20545200</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>138680100</v>
-      </c>
-      <c r="I17" s="25" t="s">
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:G17" si="2">SUM(F10:F16)</f>
+        <v>50</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="2"/>
+        <v>102726000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="4" max="4" width="14.0"/>
+    <col customWidth="1" min="6" max="6" width="16.25"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="57"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="41">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="40">
+        <f>C3*30</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="40">
+        <f>C4*228.28</f>
+        <v>2054520</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" ref="D10:D16" si="1">C10*$C$5</f>
+        <v>18490680</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="62">
+        <v>9.0</v>
+      </c>
+      <c r="H10" s="63">
+        <f t="shared" ref="H10:H16" si="2">G10*$C$5</f>
+        <v>18490680</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="1"/>
+        <v>6163560</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="62">
+        <v>6.0</v>
+      </c>
+      <c r="H11" s="63">
+        <f t="shared" si="2"/>
+        <v>12327120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D12" s="40">
+        <f t="shared" si="1"/>
+        <v>6163560</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="H12" s="63">
+        <f t="shared" si="2"/>
+        <v>6163560</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" si="1"/>
+        <v>6163560</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="63">
+        <f t="shared" si="2"/>
+        <v>6163560</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="D14" s="40">
+        <f t="shared" si="1"/>
+        <v>18490680</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="2"/>
+        <v>6163560</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="D15" s="40">
+        <f t="shared" si="1"/>
+        <v>55472040</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="H15" s="63">
+        <f t="shared" si="2"/>
+        <v>6163560</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="D16" s="40">
+        <f t="shared" si="1"/>
+        <v>55472040</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="64">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="2"/>
+        <v>6163560</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="55">
-        <f>SUM(K10:K16)</f>
-        <v>51363000</v>
+      <c r="C17" s="4"/>
+      <c r="D17" s="40">
+        <f>SUM(D10:D16)</f>
+        <v>166416120</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="40">
+        <f>SUM(H10:H16)</f>
+        <v>61635600</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="55">
-        <f>G17-K17</f>
-        <v>87317100</v>
+      <c r="B19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="40">
+        <f>-D17+H17</f>
+        <v>-104780520</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="6">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.63"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="3" max="3" width="14.88"/>
+    <col customWidth="1" min="4" max="4" width="14.13"/>
+    <col customWidth="1" min="5" max="5" width="18.5"/>
+    <col customWidth="1" min="6" max="6" width="14.13"/>
+    <col customWidth="1" min="7" max="9" width="14.88"/>
+    <col customWidth="1" min="10" max="13" width="14.13"/>
+    <col customWidth="1" min="14" max="14" width="14.88"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="H3" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="K3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.0E9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="11">
+        <f>'Nómina - Puesta en marcha'!C19*12</f>
+        <v>-1257366240</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11">
+        <f>CeldaRobotizada!C33*12</f>
+        <v>180000000</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="11">
+        <f>'Ingresos - Ventas de los produc'!C23*12</f>
+        <v>11894400000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="11">
+        <f>'Año 0 - Proyecto'!F7*12</f>
+        <v>1904712000</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11">
+        <f>F5</f>
+        <v>-1257366240</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="11">
+        <f>Comunicaciones!C31*12</f>
+        <v>180000000</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="11">
+        <f>'Ingresos - Ventas de los produc'!G23*12</f>
+        <v>22901472000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11">
+        <f>SCADA!C33*12</f>
+        <v>180000000</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="11">
+        <f>'Ingresos - Ventas de los produc'!K23*12</f>
+        <v>5515200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11">
+        <f>SUM(C5:C7)</f>
+        <v>5904712000</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11">
+        <f>L8*0.55</f>
+        <v>22171089600</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="11">
+        <f>SUM(L5:L7)</f>
+        <v>40311072000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2.0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>3.0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>5.0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>6.0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>7.0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>8.0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>9.0</v>
+      </c>
+      <c r="L11" s="30">
+        <v>10.0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="N11" s="30">
+        <v>12.0</v>
+      </c>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="37">
+        <f>$L$8</f>
+        <v>40311072000</v>
+      </c>
+      <c r="D13" s="37">
+        <f>C13+C13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>44342179200</v>
+      </c>
+      <c r="E13" s="37">
+        <f>D13+D13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>48776397120</v>
+      </c>
+      <c r="F13" s="37">
+        <f>E13+E13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>53654036832</v>
+      </c>
+      <c r="G13" s="37">
+        <f>F13+F13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>59019440515</v>
+      </c>
+      <c r="H13" s="37">
+        <f>G13+G13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>64921384567</v>
+      </c>
+      <c r="I13" s="37">
+        <f>H13+H13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>71413523023</v>
+      </c>
+      <c r="J13" s="37">
+        <f>I13+I13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>78554875326</v>
+      </c>
+      <c r="K13" s="37">
+        <f>J13+J13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>86410362858</v>
+      </c>
+      <c r="L13" s="37">
+        <f>K13+K13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>95051399144</v>
+      </c>
+      <c r="M13" s="37">
+        <f>L13+L13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>104556539059</v>
+      </c>
+      <c r="N13" s="37">
+        <f>M13+M13*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>115012192964</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="39">
+        <f t="shared" ref="C14:N14" si="1">C13</f>
+        <v>40311072000</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="1"/>
+        <v>44342179200</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="1"/>
+        <v>48776397120</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
+        <v>53654036832</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="1"/>
+        <v>59019440515</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="1"/>
+        <v>64921384567</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="1"/>
+        <v>71413523023</v>
+      </c>
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
+        <v>78554875326</v>
+      </c>
+      <c r="K14" s="39">
+        <f t="shared" si="1"/>
+        <v>86410362858</v>
+      </c>
+      <c r="L14" s="39">
+        <f t="shared" si="1"/>
+        <v>95051399144</v>
+      </c>
+      <c r="M14" s="39">
+        <f t="shared" si="1"/>
+        <v>104556539059</v>
+      </c>
+      <c r="N14" s="39">
+        <f t="shared" si="1"/>
+        <v>115012192964</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="39">
+        <f>C5</f>
+        <v>4000000000</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="68">
+        <f>'Materia Prima'!E11</f>
+        <v>16142976000</v>
+      </c>
+      <c r="D17" s="68">
+        <f>C17+C17*'Materia Prima'!$E$12</f>
+        <v>17757273600</v>
+      </c>
+      <c r="E17" s="68">
+        <f>D17+D17*'Materia Prima'!$E$12</f>
+        <v>19533000960</v>
+      </c>
+      <c r="F17" s="68">
+        <f>E17+E17*'Materia Prima'!$E$12</f>
+        <v>21486301056</v>
+      </c>
+      <c r="G17" s="68">
+        <f>F17+F17*'Materia Prima'!$E$12</f>
+        <v>23634931162</v>
+      </c>
+      <c r="H17" s="68">
+        <f>G17+G17*'Materia Prima'!$E$12</f>
+        <v>25998424278</v>
+      </c>
+      <c r="I17" s="68">
+        <f>H17+H17*'Materia Prima'!$E$12</f>
+        <v>28598266706</v>
+      </c>
+      <c r="J17" s="68">
+        <f>I17+I17*'Materia Prima'!$E$12</f>
+        <v>31458093376</v>
+      </c>
+      <c r="K17" s="68">
+        <f>J17+J17*'Materia Prima'!$E$12</f>
+        <v>34603902714</v>
+      </c>
+      <c r="L17" s="68">
+        <f>K17+K17*'Materia Prima'!$E$12</f>
+        <v>38064292985</v>
+      </c>
+      <c r="M17" s="68">
+        <f>L17+L17*'Materia Prima'!$E$12</f>
+        <v>41870722284</v>
+      </c>
+      <c r="N17" s="68">
+        <f>M17+M17*'Materia Prima'!$E$12</f>
+        <v>46057794512</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="37">
+        <f>$I$8</f>
+        <v>22171089600</v>
+      </c>
+      <c r="D18" s="37">
+        <f>C18+C18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>24388198560</v>
+      </c>
+      <c r="E18" s="37">
+        <f>D18+D18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>26827018416</v>
+      </c>
+      <c r="F18" s="37">
+        <f>E18+E18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>29509720258</v>
+      </c>
+      <c r="G18" s="37">
+        <f>F18+F18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>32460692283</v>
+      </c>
+      <c r="H18" s="37">
+        <f>G18+G18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>35706761512</v>
+      </c>
+      <c r="I18" s="37">
+        <f>H18+H18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>39277437663</v>
+      </c>
+      <c r="J18" s="37">
+        <f>I18+I18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>43205181429</v>
+      </c>
+      <c r="K18" s="37">
+        <f>J18+J18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>47525699572</v>
+      </c>
+      <c r="L18" s="37">
+        <f>K18+K18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>52278269529</v>
+      </c>
+      <c r="M18" s="37">
+        <f>L18+L18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>57506096482</v>
+      </c>
+      <c r="N18" s="37">
+        <f>M18+M18*'Ingresos - Ventas de los produc'!$D$33</f>
+        <v>63256706130</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="37">
+        <f>C6</f>
+        <v>1904712000</v>
+      </c>
+      <c r="C19" s="37">
+        <f>$F$6</f>
+        <v>-1257366240</v>
+      </c>
+      <c r="D19" s="37">
+        <f>C19*(1/'Nómina - Puesta en marcha'!C21)</f>
+        <v>-1143060218</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" ref="E19:N19" si="2">D19*0.91</f>
+        <v>-1040184799</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="2"/>
+        <v>-946568166.7</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="2"/>
+        <v>-861377031.7</v>
+      </c>
+      <c r="H19" s="37">
+        <f t="shared" si="2"/>
+        <v>-783853098.8</v>
+      </c>
+      <c r="I19" s="37">
+        <f t="shared" si="2"/>
+        <v>-713306319.9</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" si="2"/>
+        <v>-649108751.1</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="2"/>
+        <v>-590688963.5</v>
+      </c>
+      <c r="L19" s="37">
+        <f t="shared" si="2"/>
+        <v>-537526956.8</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" si="2"/>
+        <v>-489149530.7</v>
+      </c>
+      <c r="N19" s="37">
+        <f t="shared" si="2"/>
+        <v>-445126072.9</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="39">
+        <f t="shared" ref="B20:N20" si="3">SUM(B16:B19)</f>
+        <v>5904712000</v>
+      </c>
+      <c r="C20" s="37">
+        <f t="shared" si="3"/>
+        <v>37056699360</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="3"/>
+        <v>41002411942</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="3"/>
+        <v>45319834577</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" si="3"/>
+        <v>50049453147</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="3"/>
+        <v>55234246413</v>
+      </c>
+      <c r="H20" s="37">
+        <f t="shared" si="3"/>
+        <v>60921332691</v>
+      </c>
+      <c r="I20" s="37">
+        <f t="shared" si="3"/>
+        <v>67162398048</v>
+      </c>
+      <c r="J20" s="37">
+        <f t="shared" si="3"/>
+        <v>74014166054</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="3"/>
+        <v>81538913322</v>
+      </c>
+      <c r="L20" s="37">
+        <f t="shared" si="3"/>
+        <v>89805035558</v>
+      </c>
+      <c r="M20" s="37">
+        <f t="shared" si="3"/>
+        <v>98887669235</v>
+      </c>
+      <c r="N20" s="37">
+        <f t="shared" si="3"/>
+        <v>108869374569</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="39">
+        <f t="shared" ref="B22:N22" si="4">B14-B20</f>
+        <v>-5904712000</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" si="4"/>
+        <v>3254372640</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" si="4"/>
+        <v>3339767258</v>
+      </c>
+      <c r="E22" s="39">
+        <f t="shared" si="4"/>
+        <v>3456562543</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="4"/>
+        <v>3604583685</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="4"/>
+        <v>3785194102</v>
+      </c>
+      <c r="H22" s="39">
+        <f t="shared" si="4"/>
+        <v>4000051876</v>
+      </c>
+      <c r="I22" s="39">
+        <f t="shared" si="4"/>
+        <v>4251124975</v>
+      </c>
+      <c r="J22" s="39">
+        <f t="shared" si="4"/>
+        <v>4540709272</v>
+      </c>
+      <c r="K22" s="39">
+        <f t="shared" si="4"/>
+        <v>4871449536</v>
+      </c>
+      <c r="L22" s="39">
+        <f t="shared" si="4"/>
+        <v>5246363587</v>
+      </c>
+      <c r="M22" s="39">
+        <f t="shared" si="4"/>
+        <v>5668869823</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="4"/>
+        <v>6142818395</v>
+      </c>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="39">
+        <f t="shared" ref="B23:N23" si="5">(B22/(1+$B$37)^B11)</f>
+        <v>-5904712000</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="5"/>
+        <v>3099402514</v>
+      </c>
+      <c r="D23" s="39">
+        <f t="shared" si="5"/>
+        <v>3029267354</v>
+      </c>
+      <c r="E23" s="39">
+        <f t="shared" si="5"/>
+        <v>2985908686</v>
+      </c>
+      <c r="F23" s="39">
+        <f t="shared" si="5"/>
+        <v>2965499918</v>
+      </c>
+      <c r="G23" s="39">
+        <f t="shared" si="5"/>
+        <v>2965798624</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" si="5"/>
+        <v>2984900297</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" si="5"/>
+        <v>3021195152</v>
+      </c>
+      <c r="J23" s="39">
+        <f t="shared" si="5"/>
+        <v>3073330767</v>
+      </c>
+      <c r="K23" s="39">
+        <f t="shared" si="5"/>
+        <v>3140179806</v>
+      </c>
+      <c r="L23" s="39">
+        <f t="shared" si="5"/>
+        <v>3220812139</v>
+      </c>
+      <c r="M23" s="39">
+        <f t="shared" si="5"/>
+        <v>3314470778</v>
+      </c>
+      <c r="N23" s="39">
+        <f t="shared" si="5"/>
+        <v>3420551135</v>
+      </c>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="48">
+        <f>B23</f>
+        <v>-5904712000</v>
+      </c>
+      <c r="C24" s="49">
+        <f t="shared" ref="C24:N24" si="6">C23+B24</f>
+        <v>-2805309486</v>
+      </c>
+      <c r="D24" s="49">
+        <f t="shared" si="6"/>
+        <v>223957868.6</v>
+      </c>
+      <c r="E24" s="49">
+        <f t="shared" si="6"/>
+        <v>3209866555</v>
+      </c>
+      <c r="F24" s="49">
+        <f t="shared" si="6"/>
+        <v>6175366473</v>
+      </c>
+      <c r="G24" s="49">
+        <f t="shared" si="6"/>
+        <v>9141165097</v>
+      </c>
+      <c r="H24" s="49">
+        <f t="shared" si="6"/>
+        <v>12126065394</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" si="6"/>
+        <v>15147260546</v>
+      </c>
+      <c r="J24" s="49">
+        <f t="shared" si="6"/>
+        <v>18220591312</v>
+      </c>
+      <c r="K24" s="49">
+        <f t="shared" si="6"/>
+        <v>21360771118</v>
+      </c>
+      <c r="L24" s="49">
+        <f t="shared" si="6"/>
+        <v>24581583257</v>
+      </c>
+      <c r="M24" s="49">
+        <f t="shared" si="6"/>
+        <v>27896054035</v>
+      </c>
+      <c r="N24" s="49">
+        <f t="shared" si="6"/>
+        <v>31316605171</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="71">
+        <f t="shared" ref="C26:N26" si="7">C13</f>
+        <v>40311072000</v>
+      </c>
+      <c r="D26" s="71">
+        <f t="shared" si="7"/>
+        <v>44342179200</v>
+      </c>
+      <c r="E26" s="71">
+        <f t="shared" si="7"/>
+        <v>48776397120</v>
+      </c>
+      <c r="F26" s="71">
+        <f t="shared" si="7"/>
+        <v>53654036832</v>
+      </c>
+      <c r="G26" s="71">
+        <f t="shared" si="7"/>
+        <v>59019440515</v>
+      </c>
+      <c r="H26" s="71">
+        <f t="shared" si="7"/>
+        <v>64921384567</v>
+      </c>
+      <c r="I26" s="71">
+        <f t="shared" si="7"/>
+        <v>71413523023</v>
+      </c>
+      <c r="J26" s="71">
+        <f t="shared" si="7"/>
+        <v>78554875326</v>
+      </c>
+      <c r="K26" s="71">
+        <f t="shared" si="7"/>
+        <v>86410362858</v>
+      </c>
+      <c r="L26" s="71">
+        <f t="shared" si="7"/>
+        <v>95051399144</v>
+      </c>
+      <c r="M26" s="71">
+        <f t="shared" si="7"/>
+        <v>104556539059</v>
+      </c>
+      <c r="N26" s="71">
+        <f t="shared" si="7"/>
+        <v>115012192964</v>
+      </c>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="71">
+        <f t="shared" ref="C27:N27" si="8">C20</f>
+        <v>37056699360</v>
+      </c>
+      <c r="D27" s="71">
+        <f t="shared" si="8"/>
+        <v>41002411942</v>
+      </c>
+      <c r="E27" s="71">
+        <f t="shared" si="8"/>
+        <v>45319834577</v>
+      </c>
+      <c r="F27" s="71">
+        <f t="shared" si="8"/>
+        <v>50049453147</v>
+      </c>
+      <c r="G27" s="71">
+        <f t="shared" si="8"/>
+        <v>55234246413</v>
+      </c>
+      <c r="H27" s="71">
+        <f t="shared" si="8"/>
+        <v>60921332691</v>
+      </c>
+      <c r="I27" s="71">
+        <f t="shared" si="8"/>
+        <v>67162398048</v>
+      </c>
+      <c r="J27" s="71">
+        <f t="shared" si="8"/>
+        <v>74014166054</v>
+      </c>
+      <c r="K27" s="71">
+        <f t="shared" si="8"/>
+        <v>81538913322</v>
+      </c>
+      <c r="L27" s="71">
+        <f t="shared" si="8"/>
+        <v>89805035558</v>
+      </c>
+      <c r="M27" s="71">
+        <f t="shared" si="8"/>
+        <v>98887669235</v>
+      </c>
+      <c r="N27" s="71">
+        <f t="shared" si="8"/>
+        <v>108869374569</v>
+      </c>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="71">
+        <f t="shared" ref="C28:N28" si="9">C26-C27</f>
+        <v>3254372640</v>
+      </c>
+      <c r="D28" s="71">
+        <f t="shared" si="9"/>
+        <v>3339767258</v>
+      </c>
+      <c r="E28" s="71">
+        <f t="shared" si="9"/>
+        <v>3456562543</v>
+      </c>
+      <c r="F28" s="71">
+        <f t="shared" si="9"/>
+        <v>3604583685</v>
+      </c>
+      <c r="G28" s="71">
+        <f t="shared" si="9"/>
+        <v>3785194102</v>
+      </c>
+      <c r="H28" s="71">
+        <f t="shared" si="9"/>
+        <v>4000051876</v>
+      </c>
+      <c r="I28" s="71">
+        <f t="shared" si="9"/>
+        <v>4251124975</v>
+      </c>
+      <c r="J28" s="71">
+        <f t="shared" si="9"/>
+        <v>4540709272</v>
+      </c>
+      <c r="K28" s="71">
+        <f t="shared" si="9"/>
+        <v>4871449536</v>
+      </c>
+      <c r="L28" s="71">
+        <f t="shared" si="9"/>
+        <v>5246363587</v>
+      </c>
+      <c r="M28" s="71">
+        <f t="shared" si="9"/>
+        <v>5668869823</v>
+      </c>
+      <c r="N28" s="71">
+        <f t="shared" si="9"/>
+        <v>6142818395</v>
+      </c>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="E29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="K29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="M29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="71">
+        <f t="shared" ref="C30:N30" si="10">C28-C29</f>
+        <v>3254372640</v>
+      </c>
+      <c r="D30" s="71">
+        <f t="shared" si="10"/>
+        <v>3339767258</v>
+      </c>
+      <c r="E30" s="71">
+        <f t="shared" si="10"/>
+        <v>3456562543</v>
+      </c>
+      <c r="F30" s="71">
+        <f t="shared" si="10"/>
+        <v>3604583685</v>
+      </c>
+      <c r="G30" s="71">
+        <f t="shared" si="10"/>
+        <v>3785194102</v>
+      </c>
+      <c r="H30" s="71">
+        <f t="shared" si="10"/>
+        <v>4000051876</v>
+      </c>
+      <c r="I30" s="71">
+        <f t="shared" si="10"/>
+        <v>4251124975</v>
+      </c>
+      <c r="J30" s="71">
+        <f t="shared" si="10"/>
+        <v>4540709272</v>
+      </c>
+      <c r="K30" s="71">
+        <f t="shared" si="10"/>
+        <v>4871449536</v>
+      </c>
+      <c r="L30" s="71">
+        <f t="shared" si="10"/>
+        <v>5246363587</v>
+      </c>
+      <c r="M30" s="71">
+        <f t="shared" si="10"/>
+        <v>5668869823</v>
+      </c>
+      <c r="N30" s="71">
+        <f t="shared" si="10"/>
+        <v>6142818395</v>
+      </c>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="71">
+        <f t="shared" ref="C31:N31" si="11">C30*0.19</f>
+        <v>618330801.6</v>
+      </c>
+      <c r="D31" s="71">
+        <f t="shared" si="11"/>
+        <v>634555779.1</v>
+      </c>
+      <c r="E31" s="71">
+        <f t="shared" si="11"/>
+        <v>656746883.1</v>
+      </c>
+      <c r="F31" s="71">
+        <f t="shared" si="11"/>
+        <v>684870900.2</v>
+      </c>
+      <c r="G31" s="71">
+        <f t="shared" si="11"/>
+        <v>719186879.4</v>
+      </c>
+      <c r="H31" s="71">
+        <f t="shared" si="11"/>
+        <v>760009856.5</v>
+      </c>
+      <c r="I31" s="71">
+        <f t="shared" si="11"/>
+        <v>807713745.2</v>
+      </c>
+      <c r="J31" s="71">
+        <f t="shared" si="11"/>
+        <v>862734761.6</v>
+      </c>
+      <c r="K31" s="71">
+        <f t="shared" si="11"/>
+        <v>925575411.9</v>
+      </c>
+      <c r="L31" s="71">
+        <f t="shared" si="11"/>
+        <v>996809081.5</v>
+      </c>
+      <c r="M31" s="71">
+        <f t="shared" si="11"/>
+        <v>1077085266</v>
+      </c>
+      <c r="N31" s="71">
+        <f t="shared" si="11"/>
+        <v>1167135495</v>
+      </c>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="71">
+        <f>C5*0.2</f>
+        <v>800000000</v>
+      </c>
+      <c r="D32" s="71">
+        <f t="shared" ref="D32:N32" si="12">C32*0.95</f>
+        <v>760000000</v>
+      </c>
+      <c r="E32" s="71">
+        <f t="shared" si="12"/>
+        <v>722000000</v>
+      </c>
+      <c r="F32" s="71">
+        <f t="shared" si="12"/>
+        <v>685900000</v>
+      </c>
+      <c r="G32" s="71">
+        <f t="shared" si="12"/>
+        <v>651605000</v>
+      </c>
+      <c r="H32" s="71">
+        <f t="shared" si="12"/>
+        <v>619024750</v>
+      </c>
+      <c r="I32" s="71">
+        <f t="shared" si="12"/>
+        <v>588073512.5</v>
+      </c>
+      <c r="J32" s="71">
+        <f t="shared" si="12"/>
+        <v>558669836.9</v>
+      </c>
+      <c r="K32" s="71">
+        <f t="shared" si="12"/>
+        <v>530736345</v>
+      </c>
+      <c r="L32" s="71">
+        <f t="shared" si="12"/>
+        <v>504199527.8</v>
+      </c>
+      <c r="M32" s="71">
+        <f t="shared" si="12"/>
+        <v>478989551.4</v>
+      </c>
+      <c r="N32" s="71">
+        <f t="shared" si="12"/>
+        <v>455040073.8</v>
+      </c>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="8">
+        <f>B24</f>
+        <v>-5904712000</v>
+      </c>
+      <c r="C33" s="71">
+        <f t="shared" ref="C33:N33" si="13">C30-C31-C32</f>
+        <v>1836041838</v>
+      </c>
+      <c r="D33" s="71">
+        <f t="shared" si="13"/>
+        <v>1945211479</v>
+      </c>
+      <c r="E33" s="71">
+        <f t="shared" si="13"/>
+        <v>2077815659</v>
+      </c>
+      <c r="F33" s="71">
+        <f t="shared" si="13"/>
+        <v>2233812785</v>
+      </c>
+      <c r="G33" s="71">
+        <f t="shared" si="13"/>
+        <v>2414402223</v>
+      </c>
+      <c r="H33" s="71">
+        <f t="shared" si="13"/>
+        <v>2621017270</v>
+      </c>
+      <c r="I33" s="71">
+        <f t="shared" si="13"/>
+        <v>2855337717</v>
+      </c>
+      <c r="J33" s="71">
+        <f t="shared" si="13"/>
+        <v>3119304673</v>
+      </c>
+      <c r="K33" s="71">
+        <f t="shared" si="13"/>
+        <v>3415137779</v>
+      </c>
+      <c r="L33" s="71">
+        <f t="shared" si="13"/>
+        <v>3745354977</v>
+      </c>
+      <c r="M33" s="71">
+        <f t="shared" si="13"/>
+        <v>4112795006</v>
+      </c>
+      <c r="N33" s="71">
+        <f t="shared" si="13"/>
+        <v>4520642826</v>
+      </c>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="34"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="53">
+        <f t="array" ref="B38">NPV(B37,C22:N22)</f>
+        <v>37221317171</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="53">
+        <f>C8</f>
+        <v>5904712000</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="55">
+        <f>B38-B39</f>
+        <v>31316605171</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="74">
+        <f>IRR(B22:N22)</f>
+        <v>0.5869386746</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="76">
+        <v>2.0</v>
+      </c>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="34"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="27">
+        <f>(SUM(C33:N33)-C8)/C8</f>
+        <v>4.910004456</v>
+      </c>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="77">
+        <f>IRR(B33:N33)</f>
+        <v>0.3683352944</v>
+      </c>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+    </row>
+    <row r="45">
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="34"/>
+      <c r="Z46" s="34"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="39">
+        <f>SUM(C14:N14)</f>
+        <v>862023402608</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="39">
+        <f>SUM(C20:N20)</f>
+        <v>809861534917</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="34"/>
+      <c r="Z48" s="34"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="39">
+        <f>B47-B48</f>
+        <v>52161867691</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="34"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="39">
+        <f>B49-B50</f>
+        <v>52161867691</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="39">
+        <f>B51*0.19</f>
+        <v>9910754861</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="39">
+        <f>B51-B52</f>
+        <v>42251112830</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="27">
+        <f>(B54-C8)/(C8)</f>
+        <v>6.155490874</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="34"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="34"/>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="34"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="56"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="56"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="34"/>
+      <c r="T59" s="34"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="34"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="56"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
